--- a/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8776EE-9C79-4765-86C3-086A5241DDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DC80B9-ABF5-4C33-B389-85416B7443DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="675" windowWidth="19860" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="885" windowWidth="19860" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>Bondsnr</t>
   </si>
@@ -220,18 +220,12 @@
 Reserves kunnen zich beschikbaar melden en geven daarbij contactgegevens door zodat je ze op kan roepen.</t>
   </si>
   <si>
-    <t>Gelijke scores</t>
-  </si>
-  <si>
     <t>Sorteer het blad op de totaalscore met het filter-knopje in cell N8. Kies sorteren van hoog naar laag.</t>
   </si>
   <si>
     <t>Kwalificatie</t>
   </si>
   <si>
-    <t>Resultaat van de shoot-off of toss moet ingevoerd worden in kolom M. De exacte waardes die je invoert zijn niet van belang, als er maar verschil ontstaat en de velden niet meer geel zijn. Vergeet niet opnieuw te sorteren!</t>
-  </si>
-  <si>
     <t>Finales</t>
   </si>
   <si>
@@ -271,13 +265,42 @@
     <t>Dit werkboek gebruikt geen macro's meer; alle automatisering wordt gedaan met formules. Lees onderstaande instructies over het gebruik van dit werkboek. In verband met het automatisch inlezen van de resultaten is het belangrijk geen wijzigingen te maken aan de structuur! Dus geen regels/kolommen weghalen, toevoegen of informatie verplaatsen!</t>
   </si>
   <si>
-    <t>Bij invoeren van een shoot-off resultaat moet de sporter die door mag de hoogste invoer krijgen. Je kan bijvoorbeeld 10 en 9 invoeren. Bij gelijke score met "het dichts bij het midden" kan je een decimaal invoeren, bijvoorbeeld 10,1 en 10,0. Het programma zal een sterretje tonen bij de het beste resultaat. Bij opnieuw schieten (beslissing scheidsrechter) hoef je alleen het uiteindelijke resultaat in te voeren.</t>
+    <t>Dit werkboek bestaat uit 5 bladen:</t>
+  </si>
+  <si>
+    <t>Macros en formules</t>
+  </si>
+  <si>
+    <t>Voer de setpunten en eventueel shoot-off resultaat in.
+De juiste sporters stromen automatisch door naar de volgende finale ronde.</t>
+  </si>
+  <si>
+    <t>Instructies voor juist gebruik van dit BK programma voor de Indoor competitie</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Uitleg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: dit blad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -285,7 +308,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -296,26 +319,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Uitleg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: dit blad</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -323,7 +327,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -334,7 +338,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -342,7 +346,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -353,7 +357,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -361,18 +365,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>: blad voor finales met maximaal 16 sporters</t>
     </r>
-  </si>
-  <si>
-    <t>Dit werkboek bestaat uit 5 bladen:</t>
-  </si>
-  <si>
-    <t>Macros en formules</t>
   </si>
   <si>
     <r>
@@ -381,7 +379,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -389,7 +387,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -404,7 +402,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -412,7 +410,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -426,7 +424,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -434,34 +432,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> in geel gemarkeerd.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bij gelijke score die bepalend zijn voor wel/niet deelname aan de finale, moet een shoot-off georganiseerd worden.
-Voor overige gelijk scores mag getosst worden (=kop of munt) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>of moet dit zijn: 10-en en 9-ens tellen?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
     </r>
   </si>
   <si>
@@ -471,7 +446,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -479,7 +454,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -487,11 +462,23 @@
     </r>
   </si>
   <si>
-    <t>Voer de setpunten en eventueel shoot-off resultaat in.
-De juiste sporters stromen automatisch door naar de volgende finale ronde.</t>
-  </si>
-  <si>
-    <t>Instructies voor juist gebruik van dit BK programma voor de Indoor competitie</t>
+    <t>Gelijke resultaten?</t>
+  </si>
+  <si>
+    <t>Als dit bepalend is voor wel/niet deelname aan de finale, dan moet een shoot-off georganiseerd worden.
+Voor overige gelijke scores: tel de 10-en en 9-ens van de kwalificatie-scores.</t>
+  </si>
+  <si>
+    <t>Vergeet niet opnieuw te sorteren!</t>
+  </si>
+  <si>
+    <t>De exacte waardes die je invoert zijn niet van belang, als er maar verschil ontstaat en de velden niet meer geel zijn. Hoger = beter.</t>
+  </si>
+  <si>
+    <t>Resultaat van de shoot-off / telling moet ingevoerd worden in kolom M. Dit wordt als decimaal toegevoegd aan het resultaat.</t>
+  </si>
+  <si>
+    <t>Bij invoeren van een shoot-off resultaat moet de sporter die door mag de hoogste invoer krijgen. Je kan bijvoorbeeld 10 en 9 invoeren. Bij gelijke score met "het dichts bij het midden" kan je een decimaal invoeren, bijvoorbeeld 10,1 en 10,0. Het programma zal een sterretje tonen bij het beste resultaat. Bij opnieuw schieten (beslissing scheidsrechter) hoef je alleen het uiteindelijke resultaat in te voeren.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +489,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -557,8 +544,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -673,7 +665,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -845,66 +837,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -942,52 +874,80 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -998,10 +958,36 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,290 +1350,302 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Blad5"/>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="106.42578125" style="56" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="103" customWidth="1"/>
+    <col min="2" max="2" width="111.7109375" style="103" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="56" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="70"/>
-      <c r="B1" s="69"/>
-    </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="99"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="99"/>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="99"/>
+      <c r="B7" s="100"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="100"/>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="99"/>
+      <c r="B9" s="100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="100"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="99"/>
+      <c r="B13" s="100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="99"/>
+      <c r="B14" s="100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="99"/>
+      <c r="B15" s="100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="99"/>
+      <c r="B16" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="99"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="99"/>
+      <c r="B19" s="100" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="99"/>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="99"/>
+      <c r="B22" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
+    </row>
+    <row r="24" spans="1:2" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="99"/>
+      <c r="B24" s="100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="99"/>
+      <c r="B25" s="100"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="99"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="99"/>
+      <c r="B27" s="100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="99"/>
+      <c r="B28" s="100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="99"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="99"/>
+      <c r="B31" s="100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="99"/>
+      <c r="B32" s="100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="99"/>
+      <c r="B33" s="100"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="99"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="99"/>
+      <c r="B35" s="100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="99"/>
+      <c r="B36" s="100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="99"/>
+      <c r="B37" s="100" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="99"/>
+      <c r="B38" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="69"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="69"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="69"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="72"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="72"/>
-    </row>
-    <row r="9" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="71"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="69"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="B20" s="72"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="69"/>
-    </row>
-    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-    </row>
-    <row r="24" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="72"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="99"/>
+      <c r="B39" s="100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="99"/>
+      <c r="B40" s="100"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="69"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="69"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="69"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71" t="s">
+      <c r="B41" s="99"/>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="99"/>
+      <c r="B42" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="99"/>
+      <c r="B43" s="100" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="99"/>
+      <c r="B44" s="100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="99"/>
+      <c r="B45" s="100" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="99"/>
+      <c r="B46" s="100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A47" s="99"/>
+      <c r="B47" s="100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="99"/>
+      <c r="B48" s="100"/>
+    </row>
+    <row r="49" spans="1:2" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="101"/>
+    </row>
+    <row r="50" spans="1:2" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="101"/>
+      <c r="B50" s="100" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
-      <c r="B38" s="72"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="69"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="70"/>
-      <c r="B40" s="71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="70"/>
-      <c r="B41" s="71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
-      <c r="B43" s="71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="70"/>
-      <c r="B45" s="71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="70"/>
-      <c r="B46" s="71"/>
-    </row>
-    <row r="47" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="73"/>
-    </row>
-    <row r="48" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
-      <c r="B48" s="71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="70"/>
-      <c r="B49" s="74" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="99"/>
+      <c r="B51" s="102" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="70"/>
-      <c r="B50" s="69"/>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="99"/>
+      <c r="B52" s="99"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1664,9 +1662,7 @@
   </sheetPr>
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1692,130 +1688,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1"/>
     </row>
     <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="107" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="89"/>
+      <c r="F5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="64" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="19"/>
       <c r="D7" s="5" t="s">
         <v>0</v>
@@ -1866,7 +1862,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N8" s="21" t="s">
         <v>27</v>
@@ -2563,103 +2559,103 @@
       <c r="S33"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="99" t="s">
+      <c r="B35" s="73"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="M35" s="100"/>
-      <c r="N35" s="99" t="s">
+      <c r="M35" s="82"/>
+      <c r="N35" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="O35" s="96"/>
+      <c r="O35" s="78"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="102" t="s">
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="96"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="78"/>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="78"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="61"/>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="103"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="5" t="s">
         <v>0</v>
       </c>
@@ -2749,38 +2745,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="str">
+      <c r="A1" s="98" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
     </row>
@@ -3769,7 +3765,7 @@
   <dimension ref="A1:X97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3797,52 +3793,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="str">
+      <c r="A1" s="98" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
     </row>
     <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
     </row>
@@ -5322,7 +5318,7 @@
   <dimension ref="A1:X97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -5355,66 +5351,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="str">
+      <c r="A1" s="98" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="28"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
-      <c r="T3" s="65" t="s">
+      <c r="T3" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
       <c r="W3" s="27"/>
       <c r="X3" s="27"/>
     </row>

--- a/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DC80B9-ABF5-4C33-B389-85416B7443DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E485489-C07F-4074-96A6-80D2F66E9413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="885" windowWidth="19860" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="975" windowWidth="22440" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Finales 16" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Voorronde!$A$8:$O$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Voorronde!$A$8:$P$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Finales 16'!$A$1:$X$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Finales 4'!$A$1:$L$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Finales 8'!$A$1:$R$54</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
   <si>
     <t>Bondsnr</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Hier komt datum</t>
-  </si>
-  <si>
-    <t>Hier komt adres locatie</t>
   </si>
   <si>
     <t>Hier komt opgehaald op</t>
@@ -244,13 +241,7 @@
     <t>Tegen een BYE is het genoeg om 1-0 in te voeren.</t>
   </si>
   <si>
-    <t>of toss</t>
-  </si>
-  <si>
     <t>Sorteren</t>
-  </si>
-  <si>
-    <t>Met Excel kan je de filterknop in cell N8 gebruiken om te sorteren. Kies sorteren van hoog naar laag.</t>
   </si>
   <si>
     <t>Met andere programma's moet je een blok cellen markeren (A8 tot en met O33), in het menu op zoek naar Sorteren, kolom N kiezen en kies van hoog naar laag sorteren.</t>
@@ -465,20 +456,52 @@
     <t>Gelijke resultaten?</t>
   </si>
   <si>
+    <t>Vergeet niet opnieuw te sorteren!</t>
+  </si>
+  <si>
+    <t>De exacte waardes die je invoert zijn niet van belang, als er maar verschil ontstaat en de velden niet meer geel zijn. Hoger = beter.</t>
+  </si>
+  <si>
+    <t>Resultaat van de shoot-off / telling moet ingevoerd worden in kolom M. Dit wordt als decimaal toegevoegd aan het resultaat.</t>
+  </si>
+  <si>
+    <t>Bij invoeren van een shoot-off resultaat moet de sporter die door mag de hoogste invoer krijgen. Je kan bijvoorbeeld 10 en 9 invoeren. Bij gelijke score met "het dichts bij het midden" kan je een decimaal invoeren, bijvoorbeeld 10,1 en 10,0. Het programma zal een sterretje tonen bij het beste resultaat. Bij opnieuw schieten (beslissing scheidsrechter) hoef je alleen het uiteindelijke resultaat in te voeren.</t>
+  </si>
+  <si>
+    <t>Deelname</t>
+  </si>
+  <si>
+    <t>Hier komt adres
+locatie</t>
+  </si>
+  <si>
+    <t>/telling</t>
+  </si>
+  <si>
     <t>Als dit bepalend is voor wel/niet deelname aan de finale, dan moet een shoot-off georganiseerd worden.
-Voor overige gelijke scores: tel de 10-en en 9-ens van de kwalificatie-scores.</t>
-  </si>
-  <si>
-    <t>Vergeet niet opnieuw te sorteren!</t>
-  </si>
-  <si>
-    <t>De exacte waardes die je invoert zijn niet van belang, als er maar verschil ontstaat en de velden niet meer geel zijn. Hoger = beter.</t>
-  </si>
-  <si>
-    <t>Resultaat van de shoot-off / telling moet ingevoerd worden in kolom M. Dit wordt als decimaal toegevoegd aan het resultaat.</t>
-  </si>
-  <si>
-    <t>Bij invoeren van een shoot-off resultaat moet de sporter die door mag de hoogste invoer krijgen. Je kan bijvoorbeeld 10 en 9 invoeren. Bij gelijke score met "het dichts bij het midden" kan je een decimaal invoeren, bijvoorbeeld 10,1 en 10,0. Het programma zal een sterretje tonen bij het beste resultaat. Bij opnieuw schieten (beslissing scheidsrechter) hoef je alleen het uiteindelijke resultaat in te voeren.</t>
+Voor overige gelijke scores: tel de 10-en en 9-ens van de kwalificatie-scores en bepaal wie beter is.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Met Excel kan je de filterknop in cell N8 gebruiken om te sorteren. Kies sorteren van </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hoog naar laag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -665,7 +688,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -915,6 +938,37 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,11 +1005,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -965,29 +1019,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,296 +1387,296 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="111.7109375" style="103" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="111.7109375" style="90" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="56" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="86"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="86"/>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="87"/>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="87"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="86"/>
+      <c r="B12" s="87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="86"/>
+      <c r="B13" s="87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="86"/>
+      <c r="B14" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="99"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="99"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="99"/>
-      <c r="B7" s="100"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="100"/>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="86"/>
+      <c r="B15" s="87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="86"/>
+      <c r="B16" s="87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="86"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="86"/>
+      <c r="B19" s="87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="86"/>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="86"/>
+      <c r="B22" s="87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+    </row>
+    <row r="24" spans="1:2" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="86"/>
+      <c r="B24" s="87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="86"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="86"/>
+      <c r="B27" s="87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="86"/>
+      <c r="B28" s="87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="86"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="86"/>
+      <c r="B31" s="87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="86"/>
+      <c r="B32" s="87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="86"/>
+      <c r="B33" s="87"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="86"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="86"/>
+      <c r="B35" s="87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="86"/>
+      <c r="B36" s="87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="86"/>
+      <c r="B37" s="87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="86"/>
+      <c r="B38" s="87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="86"/>
+      <c r="B39" s="87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="86"/>
+      <c r="B40" s="87"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="86"/>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="86"/>
+      <c r="B42" s="87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="86"/>
+      <c r="B43" s="87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="86"/>
+      <c r="B44" s="87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="86"/>
+      <c r="B45" s="87" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="100"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="100" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
-      <c r="B17" s="100"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="99"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="99"/>
-      <c r="B19" s="100" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="99"/>
-      <c r="B20" s="100"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="99"/>
-    </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
-      <c r="B22" s="100" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
-      <c r="B23" s="100"/>
-    </row>
-    <row r="24" spans="1:2" ht="45.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
-      <c r="B25" s="100"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="99"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="99"/>
-      <c r="B28" s="100" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
-      <c r="B29" s="100"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="99"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
-      <c r="B31" s="100" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
-      <c r="B32" s="100" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
-      <c r="B33" s="100"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="99"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="99"/>
-      <c r="B35" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="99"/>
-      <c r="B36" s="100" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="86"/>
+      <c r="B46" s="87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A47" s="86"/>
+      <c r="B47" s="87" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="99"/>
-      <c r="B38" s="100" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="99"/>
-      <c r="B39" s="100" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="99"/>
-      <c r="B40" s="100"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="105" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="86"/>
+      <c r="B48" s="87"/>
+    </row>
+    <row r="49" spans="1:2" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="88"/>
+    </row>
+    <row r="50" spans="1:2" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="88"/>
+      <c r="B50" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="99"/>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
-      <c r="B42" s="100" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="99"/>
-      <c r="B43" s="100" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
-      <c r="B44" s="100" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A45" s="99"/>
-      <c r="B45" s="100" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="99"/>
-      <c r="B46" s="100" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A47" s="99"/>
-      <c r="B47" s="100" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="99"/>
-      <c r="B48" s="100"/>
-    </row>
-    <row r="49" spans="1:2" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="101"/>
-    </row>
-    <row r="50" spans="1:2" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="101"/>
-      <c r="B50" s="100" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="99"/>
-      <c r="B51" s="102" t="s">
+      <c r="A51" s="86"/>
+      <c r="B51" s="89" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="99"/>
-      <c r="B52" s="99"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1660,7 +1691,7 @@
   <sheetPr codeName="Blad1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1680,14 +1711,15 @@
     <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" style="3" customWidth="1"/>
     <col min="14" max="14" width="13.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="47.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="15" max="15" width="17.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="47.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59"/>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -1703,9 +1735,10 @@
       <c r="M1" s="61"/>
       <c r="N1" s="61"/>
       <c r="O1" s="61"/>
-      <c r="P1"/>
-    </row>
-    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="61"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="62"/>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -1721,9 +1754,10 @@
       <c r="M2" s="64"/>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="61"/>
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -1739,55 +1773,58 @@
       <c r="M3" s="64"/>
       <c r="N3" s="61"/>
       <c r="O3" s="61"/>
-      <c r="P3"/>
-    </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="P3" s="61"/>
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="103"/>
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="72"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="65"/>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="66" t="s">
+      <c r="E5" s="99"/>
+      <c r="F5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="90"/>
+      <c r="G5" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="100"/>
       <c r="I5" s="85"/>
-      <c r="J5" s="95" t="s">
+      <c r="J5" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="106"/>
       <c r="N5" s="70"/>
       <c r="O5" s="70"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="P5" s="70"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="65"/>
@@ -1797,21 +1834,22 @@
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
       <c r="I6" s="68"/>
-      <c r="J6" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="94"/>
+      <c r="J6" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="104"/>
       <c r="L6" s="70"/>
       <c r="M6" s="71"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="P6" s="70"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="19"/>
       <c r="D7" s="5" t="s">
         <v>0</v>
@@ -1836,19 +1874,22 @@
         <v>9</v>
       </c>
       <c r="L7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -1861,33 +1902,34 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="22" t="s">
-        <v>70</v>
+      <c r="M8" s="95" t="s">
+        <v>94</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="10">
         <v>100001</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="10">
         <v>1000</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="58">
@@ -1905,12 +1947,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="8"/>
-      <c r="P9"/>
+      <c r="P9" s="8"/>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="20"/>
@@ -1932,12 +1975,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="8"/>
-      <c r="P10"/>
+      <c r="P10" s="8"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="20"/>
@@ -1959,12 +2003,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="8"/>
-      <c r="P11"/>
+      <c r="P11" s="8"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="20"/>
@@ -1986,12 +2031,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="8"/>
-      <c r="P12"/>
+      <c r="P12" s="8"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="20"/>
@@ -2013,12 +2059,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="8"/>
-      <c r="P13"/>
+      <c r="P13" s="8"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="20"/>
@@ -2040,12 +2087,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="8"/>
-      <c r="P14"/>
+      <c r="P14" s="8"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="20"/>
@@ -2067,12 +2115,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="8"/>
-      <c r="P15"/>
+      <c r="P15" s="8"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="20"/>
@@ -2094,12 +2143,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="8"/>
-      <c r="P16"/>
+      <c r="P16" s="8"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="20"/>
@@ -2121,12 +2171,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="8"/>
-      <c r="P17"/>
+      <c r="P17" s="8"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="11"/>
       <c r="C18" s="20"/>
@@ -2148,12 +2199,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="8"/>
-      <c r="P18"/>
+      <c r="P18" s="8"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="11"/>
       <c r="C19" s="20"/>
@@ -2175,12 +2227,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="8"/>
-      <c r="P19"/>
+      <c r="P19" s="8"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="11"/>
       <c r="C20" s="20"/>
@@ -2202,12 +2255,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="8"/>
-      <c r="P20"/>
+      <c r="P20" s="8"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="11"/>
       <c r="C21" s="20"/>
@@ -2229,12 +2283,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="8"/>
-      <c r="P21"/>
+      <c r="P21" s="8"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="11"/>
       <c r="C22" s="20"/>
@@ -2256,12 +2311,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="8"/>
-      <c r="P22"/>
+      <c r="P22" s="8"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="11"/>
       <c r="C23" s="20"/>
@@ -2283,12 +2339,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="8"/>
-      <c r="P23"/>
+      <c r="P23" s="8"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="11"/>
       <c r="C24" s="20"/>
@@ -2310,12 +2367,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="8"/>
-      <c r="P24"/>
+      <c r="P24" s="8"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="11"/>
       <c r="C25" s="20"/>
@@ -2337,12 +2395,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="8"/>
-      <c r="P25"/>
+      <c r="P25" s="8"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="11"/>
       <c r="C26" s="20"/>
@@ -2364,12 +2423,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="8"/>
-      <c r="P26"/>
+      <c r="P26" s="8"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="11"/>
       <c r="C27" s="20"/>
@@ -2391,12 +2451,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="8"/>
-      <c r="P27"/>
+      <c r="P27" s="8"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="11"/>
       <c r="C28" s="20"/>
@@ -2418,12 +2479,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="8"/>
-      <c r="P28"/>
+      <c r="P28" s="8"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="11"/>
       <c r="C29" s="20"/>
@@ -2445,12 +2507,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="8"/>
-      <c r="P29"/>
+      <c r="P29" s="8"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="11"/>
       <c r="C30" s="20"/>
@@ -2472,12 +2535,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="8"/>
-      <c r="P30"/>
+      <c r="P30" s="8"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20"/>
@@ -2499,12 +2563,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="8"/>
-      <c r="P31"/>
+      <c r="P31" s="8"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="11"/>
       <c r="C32" s="20"/>
@@ -2526,12 +2591,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="8"/>
-      <c r="P32"/>
+      <c r="P32" s="8"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
-    </row>
-    <row r="33" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T32"/>
+    </row>
+    <row r="33" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="20"/>
@@ -2553,12 +2619,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="8"/>
-      <c r="P33"/>
+      <c r="P33" s="8"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="73"/>
       <c r="B34" s="73"/>
       <c r="C34" s="74"/>
@@ -2574,14 +2641,15 @@
       <c r="M34" s="77"/>
       <c r="N34" s="78"/>
       <c r="O34" s="78"/>
-      <c r="P34"/>
+      <c r="P34" s="78"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="73"/>
       <c r="C35" s="78"/>
@@ -2594,19 +2662,20 @@
       <c r="J35" s="78"/>
       <c r="K35" s="78"/>
       <c r="L35" s="81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M35" s="82"/>
       <c r="N35" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="O35" s="78"/>
-      <c r="P35"/>
+        <v>58</v>
+      </c>
+      <c r="O35" s="81"/>
+      <c r="P35" s="78"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="73"/>
       <c r="B36" s="73"/>
       <c r="C36" s="78"/>
@@ -2616,20 +2685,21 @@
       <c r="G36" s="79"/>
       <c r="H36" s="78"/>
       <c r="I36" s="80"/>
-      <c r="J36" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="78"/>
-      <c r="P36"/>
+      <c r="J36" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="78"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="73" t="s">
         <v>10</v>
       </c>
@@ -2641,18 +2711,19 @@
       <c r="G37" s="63"/>
       <c r="H37" s="61"/>
       <c r="I37" s="83"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="61"/>
-      <c r="P37"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="61"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
       <c r="C38" s="84"/>
@@ -2669,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>11</v>
@@ -2679,17 +2750,18 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="15" t="s">
-        <v>25</v>
+      <c r="O38" s="8"/>
+      <c r="P38" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:O33" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:O33">
+  <autoFilter ref="A8:P33" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P33">
       <sortCondition descending="1" ref="N8:N33"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:Q24">
     <sortCondition descending="1" ref="L9"/>
   </sortState>
   <mergeCells count="8">
@@ -2745,38 +2817,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="str">
+      <c r="A1" s="108" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
+      <c r="B3" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
+      <c r="H3" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
     </row>
@@ -2924,7 +2996,7 @@
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -2941,7 +3013,7 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -2974,7 +3046,9 @@
         <f>INDEX(B$64:B$67,A17,1)</f>
         <v>BYE</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="33">
+        <v>1</v>
+      </c>
       <c r="D17" s="33"/>
       <c r="E17" s="35" t="str">
         <f>IF(AND(ABS(D17-D19)&lt;1,D17&gt;D19),"*","")</f>
@@ -3010,7 +3084,9 @@
         <f>INDEX(B$64:B$67,A19,1)</f>
         <v>BYE</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="33">
+        <v>2</v>
+      </c>
       <c r="D19" s="33"/>
       <c r="E19" s="39" t="str">
         <f>IF(AND(ABS(D17-D19)&lt;1,D19&gt;D17),"*","")</f>
@@ -3048,7 +3124,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -3065,7 +3141,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -3079,7 +3155,7 @@
       <c r="F23" s="35"/>
       <c r="G23" s="27"/>
       <c r="H23" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -3110,7 +3186,7 @@
       <c r="G25" s="35"/>
       <c r="H25" s="42" t="str">
         <f>H64</f>
-        <v/>
+        <v>BYE</v>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
@@ -3119,7 +3195,7 @@
         <v/>
       </c>
       <c r="L25" s="27" t="str">
-        <f>IF(H25="","",IF(H25=H82,"Goud","Zilver"))</f>
+        <f>IF(H82="","",IF(H25=H82,"Goud","Zilver"))</f>
         <v/>
       </c>
     </row>
@@ -3147,7 +3223,7 @@
       <c r="G27" s="35"/>
       <c r="H27" s="42" t="str">
         <f>H65</f>
-        <v/>
+        <v>BYE</v>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -3156,7 +3232,7 @@
         <v/>
       </c>
       <c r="L27" s="27" t="str">
-        <f>IF(H27="","",IF(H25=H82,"Zilver","Goud"))</f>
+        <f>IF(H82="","",IF(H25=H82,"Zilver","Goud"))</f>
         <v/>
       </c>
     </row>
@@ -3211,7 +3287,7 @@
       <c r="F31" s="35"/>
       <c r="G31" s="27"/>
       <c r="H31" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
@@ -3242,7 +3318,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="42" t="str">
         <f>H66</f>
-        <v/>
+        <v>BYE</v>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
@@ -3251,7 +3327,7 @@
         <v/>
       </c>
       <c r="L33" s="27" t="str">
-        <f>IF(H33="","",IF(H33=H84,"Brons","4e"))</f>
+        <f>IF(H84="","",IF(H33=H84,"Brons","4e"))</f>
         <v/>
       </c>
     </row>
@@ -3279,7 +3355,7 @@
       <c r="G35" s="35"/>
       <c r="H35" s="42" t="str">
         <f>H67</f>
-        <v/>
+        <v>BYE</v>
       </c>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
@@ -3288,7 +3364,7 @@
         <v/>
       </c>
       <c r="L35" s="27" t="str">
-        <f>IF(H35="","",IF(H33=H84,"4e","Brons"))</f>
+        <f>IF(H84="","",IF(H33=H84,"4e","Brons"))</f>
         <v/>
       </c>
     </row>
@@ -3370,7 +3446,9 @@
         <f>INDEX(B$64:B$67,A41,1)</f>
         <v>BYE</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="33">
+        <v>1</v>
+      </c>
       <c r="D41" s="33"/>
       <c r="E41" s="35" t="str">
         <f>IF(AND(ABS(D41-D43)&lt;1,D41&gt;D43),"*","")</f>
@@ -3406,7 +3484,9 @@
         <f>INDEX(B$64:B$67,A43,1)</f>
         <v>BYE</v>
       </c>
-      <c r="C43" s="33"/>
+      <c r="C43" s="33">
+        <v>2</v>
+      </c>
       <c r="D43" s="33"/>
       <c r="E43" s="39" t="str">
         <f>IF(AND(ABS(D41-D43)&lt;1,D43&gt;D41),"*","")</f>
@@ -3579,7 +3659,7 @@
     <row r="59" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="43"/>
       <c r="B59" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
@@ -3592,15 +3672,15 @@
     </row>
     <row r="61" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -3610,7 +3690,7 @@
       </c>
       <c r="H64" s="50" t="str">
         <f>B82</f>
-        <v/>
+        <v>BYE</v>
       </c>
     </row>
     <row r="65" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -3620,7 +3700,7 @@
       </c>
       <c r="H65" s="50" t="str">
         <f>B83</f>
-        <v/>
+        <v>BYE</v>
       </c>
     </row>
     <row r="66" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -3630,7 +3710,7 @@
       </c>
       <c r="H66" s="50" t="str">
         <f>B84</f>
-        <v/>
+        <v>BYE</v>
       </c>
     </row>
     <row r="67" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -3640,7 +3720,7 @@
       </c>
       <c r="H67" s="27" t="str">
         <f>B85</f>
-        <v/>
+        <v>BYE</v>
       </c>
     </row>
     <row r="68" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
@@ -3657,20 +3737,20 @@
     <row r="79" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="51" t="s">
         <v>40</v>
-      </c>
-      <c r="G81" s="51" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="50" t="str">
         <f>IF(SUM(C17:D17)=SUM(C19:D19),"",IF(SUM(C17:D17)&gt;SUM(C19:D19),B17,B19))</f>
-        <v/>
+        <v>BYE</v>
       </c>
       <c r="C82" s="53"/>
       <c r="E82" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G82" s="27">
         <v>1</v>
@@ -3683,11 +3763,11 @@
     <row r="83" spans="1:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="50" t="str">
         <f>IF(SUM(C41:D41)=SUM(C43:D43),"",IF(SUM(C41:D41)&gt;SUM(C43:D43),B41,B43))</f>
-        <v/>
+        <v>BYE</v>
       </c>
       <c r="C83" s="53"/>
       <c r="E83" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G83" s="27">
         <v>2</v>
@@ -3700,11 +3780,11 @@
     <row r="84" spans="1:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="27" t="str">
         <f>IF(SUM(C17:D17)=SUM(C19:D19),"",IF(SUM(C17:D17)&lt;SUM(C19:D19),B17,B19))</f>
-        <v/>
+        <v>BYE</v>
       </c>
       <c r="C84" s="53"/>
       <c r="E84" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G84" s="27">
         <v>3</v>
@@ -3717,11 +3797,11 @@
     <row r="85" spans="1:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="27" t="str">
         <f>IF(SUM(C41:D41)=SUM(C43:D43),"",IF(SUM(C41:D41)&lt;SUM(C43:D43),B41,B43))</f>
-        <v/>
+        <v>BYE</v>
       </c>
       <c r="C85" s="52"/>
       <c r="E85" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G85" s="27">
         <v>4</v>
@@ -3765,7 +3845,7 @@
   <dimension ref="A1:X97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3793,52 +3873,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="str">
+      <c r="A1" s="108" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
     </row>
     <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
+      <c r="B3" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
+      <c r="H3" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
-      <c r="N3" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
+      <c r="N3" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
     </row>
@@ -3926,7 +4006,7 @@
       <c r="A8" s="29"/>
       <c r="B8" s="27"/>
       <c r="C8" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -3949,7 +4029,7 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
@@ -4072,7 +4152,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -4095,7 +4175,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -4238,7 +4318,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
       <c r="O21" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
@@ -4261,7 +4341,7 @@
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
       <c r="P22" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
@@ -4289,7 +4369,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="27"/>
       <c r="N23" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
@@ -4349,7 +4429,7 @@
         <v/>
       </c>
       <c r="R25" s="27" t="str">
-        <f>IF(N25="","",IF(N25=N82,"Goud","Zilver"))</f>
+        <f>IF(N82="","",IF(N25=N82,"Goud","Zilver"))</f>
         <v/>
       </c>
     </row>
@@ -4398,7 +4478,7 @@
         <v/>
       </c>
       <c r="R27" s="27" t="str">
-        <f>IF(N27="","",IF(N25=N82,"Zilver","Goud"))</f>
+        <f>IF(N82="","",IF(N25=N82,"Zilver","Goud"))</f>
         <v/>
       </c>
     </row>
@@ -4477,7 +4557,7 @@
       <c r="L31" s="35"/>
       <c r="M31" s="27"/>
       <c r="N31" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
@@ -4529,7 +4609,7 @@
         <v/>
       </c>
       <c r="R33" s="27" t="str">
-        <f>IF(N33="","",IF(N33=N84,"Brons","4e"))</f>
+        <f>IF(N84="","",IF(N33=N84,"Brons","4e"))</f>
         <v/>
       </c>
     </row>
@@ -4586,7 +4666,7 @@
         <v/>
       </c>
       <c r="R35" s="27" t="str">
-        <f>IF(N35="","",IF(N33=N84,"4e","Brons"))</f>
+        <f>IF(N84="","",IF(N33=N84,"4e","Brons"))</f>
         <v/>
       </c>
     </row>
@@ -5015,7 +5095,7 @@
     <row r="59" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="43"/>
       <c r="B59" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
@@ -5034,18 +5114,18 @@
     </row>
     <row r="61" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N63" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -5138,13 +5218,13 @@
     <row r="79" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="M81" s="51" t="s">
         <v>40</v>
-      </c>
-      <c r="M81" s="51" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -5154,7 +5234,7 @@
       </c>
       <c r="C82" s="53"/>
       <c r="E82" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H82" s="50" t="str">
         <f>IF(SUM(I17:J17)=SUM(I19:J19),"",IF(SUM(I17:J17)&gt;SUM(I19:J19),H17,H19))</f>
@@ -5162,7 +5242,7 @@
       </c>
       <c r="I82" s="53"/>
       <c r="K82" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M82" s="27">
         <v>1</v>
@@ -5179,7 +5259,7 @@
       </c>
       <c r="C83" s="53"/>
       <c r="E83" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" s="50" t="str">
         <f>IF(SUM(I41:J41)=SUM(I43:J43),"",IF(SUM(I41:J41)&gt;SUM(I43:J43),H41,H43))</f>
@@ -5187,7 +5267,7 @@
       </c>
       <c r="I83" s="53"/>
       <c r="K83" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M83" s="27">
         <v>2</v>
@@ -5204,7 +5284,7 @@
       </c>
       <c r="C84" s="53"/>
       <c r="E84" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H84" s="27" t="str">
         <f>IF(SUM(I17:J17)=SUM(I19:J19),"",IF(SUM(I17:J17)&lt;SUM(I19:J19),H17,H19))</f>
@@ -5212,7 +5292,7 @@
       </c>
       <c r="I84" s="53"/>
       <c r="K84" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M84" s="27">
         <v>3</v>
@@ -5229,7 +5309,7 @@
       </c>
       <c r="C85" s="53"/>
       <c r="E85" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H85" s="27" t="str">
         <f>IF(SUM(I41:J41)=SUM(I43:J43),"",IF(SUM(I41:J41)&lt;SUM(I43:J43),H41,H43))</f>
@@ -5237,7 +5317,7 @@
       </c>
       <c r="I85" s="52"/>
       <c r="K85" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M85" s="27">
         <v>4</v>
@@ -5318,7 +5398,7 @@
   <dimension ref="A1:X97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -5351,66 +5431,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="str">
+      <c r="A1" s="108" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
+      <c r="B3" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="28"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
+      <c r="H3" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
-      <c r="N3" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
+      <c r="N3" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
-      <c r="T3" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
+      <c r="T3" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
       <c r="W3" s="27"/>
       <c r="X3" s="27"/>
     </row>
@@ -5444,7 +5524,7 @@
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="28"/>
@@ -5473,7 +5553,7 @@
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="27"/>
@@ -5540,7 +5620,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="27"/>
       <c r="I8" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
@@ -5569,7 +5649,7 @@
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
@@ -5738,7 +5818,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
@@ -5767,7 +5847,7 @@
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
@@ -5962,7 +6042,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
       <c r="U21" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V21" s="27"/>
       <c r="W21" s="27"/>
@@ -5999,7 +6079,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
       <c r="V22" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W22" s="27"/>
       <c r="X22" s="27"/>
@@ -6033,7 +6113,7 @@
       <c r="R23" s="35"/>
       <c r="S23" s="27"/>
       <c r="T23" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="27"/>
@@ -6105,7 +6185,7 @@
         <v/>
       </c>
       <c r="X25" s="27" t="str">
-        <f>IF(T25="","",IF(T25=T82,"Goud","Zilver"))</f>
+        <f>IF(T82="","",IF(T25=T82,"Goud","Zilver"))</f>
         <v/>
       </c>
     </row>
@@ -6174,7 +6254,7 @@
         <v/>
       </c>
       <c r="X27" s="27" t="str">
-        <f>IF(T27="","",IF(T25=T82,"Zilver","Goud"))</f>
+        <f>IF(T82="","",IF(T25=T82,"Zilver","Goud"))</f>
         <v/>
       </c>
     </row>
@@ -6285,7 +6365,7 @@
       <c r="R31" s="35"/>
       <c r="S31" s="27"/>
       <c r="T31" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -6357,7 +6437,7 @@
         <v/>
       </c>
       <c r="X33" s="27" t="str">
-        <f>IF(T33="","",IF(T33=T84,"Brons","4e"))</f>
+        <f>IF(T84="","",IF(T33=T84,"Brons","4e"))</f>
         <v/>
       </c>
     </row>
@@ -6434,7 +6514,7 @@
         <v/>
       </c>
       <c r="X35" s="27" t="str">
-        <f>IF(T35="","",IF(T33=T84,"4e","Brons"))</f>
+        <f>IF(T84="","",IF(T33=T84,"4e","Brons"))</f>
         <v/>
       </c>
     </row>
@@ -7025,7 +7105,7 @@
     <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="43"/>
       <c r="B59" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
@@ -7050,22 +7130,22 @@
     </row>
     <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="47"/>
       <c r="B63" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N63" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T63" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -7294,16 +7374,16 @@
     </row>
     <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="M81" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M81" s="51" t="s">
+      <c r="S81" s="51" t="s">
         <v>40</v>
-      </c>
-      <c r="S81" s="51" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:20" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -7315,7 +7395,7 @@
       <c r="C82" s="52"/>
       <c r="D82" s="29"/>
       <c r="E82" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H82" s="50" t="str">
         <f>IF(SUM(I11:J11)=SUM(I13:J13),"",IF(SUM(I11:J11)&gt;SUM(I13:J13),H11,H13))</f>
@@ -7323,7 +7403,7 @@
       </c>
       <c r="I82" s="53"/>
       <c r="K82" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N82" s="50" t="str">
         <f>IF(SUM(O17:P17)=SUM(O19:P19),"",IF(SUM(O17:P17)&gt;SUM(O19:P19),N17,N19))</f>
@@ -7331,7 +7411,7 @@
       </c>
       <c r="O82" s="53"/>
       <c r="Q82" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S82" s="27">
         <v>1</v>
@@ -7350,7 +7430,7 @@
       <c r="C83" s="53"/>
       <c r="D83" s="29"/>
       <c r="E83" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H83" s="50" t="str">
         <f>IF(SUM(I23:J23)=SUM(I25:J25),"",IF(SUM(I23:J23)&gt;SUM(I25:J25),H23,H25))</f>
@@ -7358,7 +7438,7 @@
       </c>
       <c r="I83" s="53"/>
       <c r="K83" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N83" s="50" t="str">
         <f>IF(SUM(O41:P41)=SUM(O43:P43),"",IF(SUM(O41:P41)&gt;SUM(O43:P43),N41,N43))</f>
@@ -7366,7 +7446,7 @@
       </c>
       <c r="O83" s="53"/>
       <c r="Q83" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S83" s="27">
         <v>2</v>
@@ -7385,7 +7465,7 @@
       <c r="C84" s="53"/>
       <c r="D84" s="29"/>
       <c r="E84" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H84" s="50" t="str">
         <f>IF(SUM(I35:J35)=SUM(I37:J37),"",IF(SUM(I35:J35)&gt;SUM(I37:J37),H35,H37))</f>
@@ -7393,7 +7473,7 @@
       </c>
       <c r="I84" s="53"/>
       <c r="K84" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N84" s="27" t="str">
         <f>IF(SUM(O17:P17)=SUM(O19:P19),"",IF(SUM(O17:P17)&lt;SUM(O19:P19),N17,N19))</f>
@@ -7401,7 +7481,7 @@
       </c>
       <c r="O84" s="53"/>
       <c r="Q84" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S84" s="27">
         <v>3</v>
@@ -7420,7 +7500,7 @@
       <c r="C85" s="53"/>
       <c r="D85" s="29"/>
       <c r="E85" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H85" s="50" t="str">
         <f>IF(SUM(I47:J47)=SUM(I49:J49),"",IF(SUM(I47:J47)&gt;SUM(I49:J49),H47,H49))</f>
@@ -7428,7 +7508,7 @@
       </c>
       <c r="I85" s="53"/>
       <c r="K85" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N85" s="27" t="str">
         <f>IF(SUM(O41:P41)=SUM(O43:P43),"",IF(SUM(O41:P41)&lt;SUM(O43:P43),N41,N43))</f>
@@ -7436,7 +7516,7 @@
       </c>
       <c r="O85" s="52"/>
       <c r="Q85" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S85" s="27">
         <v>4</v>
@@ -7455,7 +7535,7 @@
       <c r="C86" s="53"/>
       <c r="D86" s="29"/>
       <c r="E86" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G86" s="27">
         <v>5</v>
@@ -7475,7 +7555,7 @@
       <c r="C87" s="53"/>
       <c r="D87" s="29"/>
       <c r="E87" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G87" s="27">
         <v>5</v>
@@ -7495,7 +7575,7 @@
       <c r="C88" s="53"/>
       <c r="D88" s="29"/>
       <c r="E88" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G88" s="27">
         <v>5</v>
@@ -7515,7 +7595,7 @@
       <c r="C89" s="53"/>
       <c r="D89" s="29"/>
       <c r="E89" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G89" s="27">
         <v>5</v>

--- a/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E485489-C07F-4074-96A6-80D2F66E9413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3527F02-C474-41BC-8E6D-592AE6ED9A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="975" windowWidth="22440" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1320" windowWidth="22440" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="3" r:id="rId1"/>
@@ -1383,7 +1383,7 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1693,7 +1693,7 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1719,7 +1719,7 @@
     <col min="24" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="59"/>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -3046,9 +3046,7 @@
         <f>INDEX(B$64:B$67,A17,1)</f>
         <v>BYE</v>
       </c>
-      <c r="C17" s="33">
-        <v>1</v>
-      </c>
+      <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="35" t="str">
         <f>IF(AND(ABS(D17-D19)&lt;1,D17&gt;D19),"*","")</f>
@@ -3084,9 +3082,7 @@
         <f>INDEX(B$64:B$67,A19,1)</f>
         <v>BYE</v>
       </c>
-      <c r="C19" s="33">
-        <v>2</v>
-      </c>
+      <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="39" t="str">
         <f>IF(AND(ABS(D17-D19)&lt;1,D19&gt;D17),"*","")</f>
@@ -3186,7 +3182,7 @@
       <c r="G25" s="35"/>
       <c r="H25" s="42" t="str">
         <f>H64</f>
-        <v>BYE</v>
+        <v/>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
@@ -3223,7 +3219,7 @@
       <c r="G27" s="35"/>
       <c r="H27" s="42" t="str">
         <f>H65</f>
-        <v>BYE</v>
+        <v/>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -3318,7 +3314,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="42" t="str">
         <f>H66</f>
-        <v>BYE</v>
+        <v/>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
@@ -3355,7 +3351,7 @@
       <c r="G35" s="35"/>
       <c r="H35" s="42" t="str">
         <f>H67</f>
-        <v>BYE</v>
+        <v/>
       </c>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
@@ -3446,9 +3442,7 @@
         <f>INDEX(B$64:B$67,A41,1)</f>
         <v>BYE</v>
       </c>
-      <c r="C41" s="33">
-        <v>1</v>
-      </c>
+      <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="35" t="str">
         <f>IF(AND(ABS(D41-D43)&lt;1,D41&gt;D43),"*","")</f>
@@ -3484,9 +3478,7 @@
         <f>INDEX(B$64:B$67,A43,1)</f>
         <v>BYE</v>
       </c>
-      <c r="C43" s="33">
-        <v>2</v>
-      </c>
+      <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="39" t="str">
         <f>IF(AND(ABS(D41-D43)&lt;1,D43&gt;D41),"*","")</f>
@@ -3690,7 +3682,7 @@
       </c>
       <c r="H64" s="50" t="str">
         <f>B82</f>
-        <v>BYE</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -3700,7 +3692,7 @@
       </c>
       <c r="H65" s="50" t="str">
         <f>B83</f>
-        <v>BYE</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -3710,7 +3702,7 @@
       </c>
       <c r="H66" s="50" t="str">
         <f>B84</f>
-        <v>BYE</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -3720,7 +3712,7 @@
       </c>
       <c r="H67" s="27" t="str">
         <f>B85</f>
-        <v>BYE</v>
+        <v/>
       </c>
     </row>
     <row r="68" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
@@ -3746,7 +3738,7 @@
     <row r="82" spans="1:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="50" t="str">
         <f>IF(SUM(C17:D17)=SUM(C19:D19),"",IF(SUM(C17:D17)&gt;SUM(C19:D19),B17,B19))</f>
-        <v>BYE</v>
+        <v/>
       </c>
       <c r="C82" s="53"/>
       <c r="E82" s="53" t="s">
@@ -3763,7 +3755,7 @@
     <row r="83" spans="1:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="50" t="str">
         <f>IF(SUM(C41:D41)=SUM(C43:D43),"",IF(SUM(C41:D41)&gt;SUM(C43:D43),B41,B43))</f>
-        <v>BYE</v>
+        <v/>
       </c>
       <c r="C83" s="53"/>
       <c r="E83" s="53" t="s">
@@ -3780,7 +3772,7 @@
     <row r="84" spans="1:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="27" t="str">
         <f>IF(SUM(C17:D17)=SUM(C19:D19),"",IF(SUM(C17:D17)&lt;SUM(C19:D19),B17,B19))</f>
-        <v>BYE</v>
+        <v/>
       </c>
       <c r="C84" s="53"/>
       <c r="E84" s="53" t="s">
@@ -3797,7 +3789,7 @@
     <row r="85" spans="1:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="27" t="str">
         <f>IF(SUM(C41:D41)=SUM(C43:D43),"",IF(SUM(C41:D41)&lt;SUM(C43:D43),B41,B43))</f>
-        <v>BYE</v>
+        <v/>
       </c>
       <c r="C85" s="52"/>
       <c r="E85" s="52" t="s">

--- a/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3527F02-C474-41BC-8E6D-592AE6ED9A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD63F3-571A-4FD7-8D53-CD72853A5D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1320" windowWidth="22440" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="1410" windowWidth="22440" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="3" r:id="rId1"/>
@@ -1383,7 +1383,7 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1693,7 +1693,7 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD63F3-571A-4FD7-8D53-CD72853A5D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E0110-2D24-431F-9458-20272D91D8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="1410" windowWidth="22440" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="1260" windowWidth="22440" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="3" r:id="rId1"/>
@@ -688,7 +688,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -789,13 +789,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -1018,6 +1012,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1387,296 +1402,296 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="90" customWidth="1"/>
-    <col min="2" max="2" width="111.7109375" style="90" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="56" hidden="1"/>
+    <col min="1" max="1" width="9.140625" style="88" customWidth="1"/>
+    <col min="2" max="2" width="111.7109375" style="88" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="54" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="84"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="84"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="85"/>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="85"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="85" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87" t="s">
+      <c r="A14" s="84"/>
+      <c r="B14" s="85" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87" t="s">
+      <c r="A15" s="84"/>
+      <c r="B15" s="85" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="85" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="84"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
-      <c r="B19" s="87" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="86"/>
+      <c r="B21" s="84"/>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
-      <c r="B22" s="87" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="85" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="85"/>
     </row>
     <row r="24" spans="1:2" ht="45.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
-      <c r="B24" s="87" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="85" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
-      <c r="B25" s="87"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="85"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="86"/>
+      <c r="B26" s="84"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="85" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="86"/>
-      <c r="B28" s="87" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="86"/>
-      <c r="B29" s="87"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="86"/>
+      <c r="B30" s="84"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="86"/>
-      <c r="B31" s="87" t="s">
+      <c r="A31" s="84"/>
+      <c r="B31" s="85" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="86"/>
-      <c r="B32" s="87" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="85" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="86"/>
-      <c r="B33" s="87"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="85"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="86"/>
+      <c r="B34" s="84"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="86"/>
-      <c r="B35" s="87" t="s">
+      <c r="A35" s="84"/>
+      <c r="B35" s="85" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="86"/>
-      <c r="B36" s="87" t="s">
+      <c r="A36" s="84"/>
+      <c r="B36" s="85" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="86"/>
-      <c r="B37" s="87" t="s">
+      <c r="A37" s="84"/>
+      <c r="B37" s="85" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="86"/>
-      <c r="B38" s="87" t="s">
+      <c r="A38" s="84"/>
+      <c r="B38" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="86"/>
-      <c r="B39" s="87" t="s">
+      <c r="A39" s="84"/>
+      <c r="B39" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="86"/>
-      <c r="B40" s="87"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="85"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="86"/>
+      <c r="B41" s="84"/>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="86"/>
-      <c r="B42" s="87" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="86"/>
-      <c r="B43" s="87" t="s">
+      <c r="A43" s="84"/>
+      <c r="B43" s="85" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="86"/>
-      <c r="B44" s="87" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A45" s="86"/>
-      <c r="B45" s="87" t="s">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="86"/>
-      <c r="B46" s="87" t="s">
+      <c r="A46" s="84"/>
+      <c r="B46" s="85" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A47" s="86"/>
-      <c r="B47" s="87" t="s">
+      <c r="A47" s="84"/>
+      <c r="B47" s="85" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="86"/>
-      <c r="B48" s="87"/>
-    </row>
-    <row r="49" spans="1:2" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="92" t="s">
+      <c r="A48" s="84"/>
+      <c r="B48" s="85"/>
+    </row>
+    <row r="49" spans="1:2" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="88"/>
-    </row>
-    <row r="50" spans="1:2" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
-      <c r="B50" s="87" t="s">
+      <c r="B49" s="86"/>
+    </row>
+    <row r="50" spans="1:2" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="86"/>
+      <c r="B50" s="85" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="86"/>
-      <c r="B51" s="89" t="s">
+      <c r="A51" s="84"/>
+      <c r="B51" s="87" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="84"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1720,136 +1735,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
       <c r="Q3"/>
     </row>
     <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="101" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="99" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="94" t="s">
+      <c r="E5" s="97"/>
+      <c r="F5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="G5" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="105" t="s">
+      <c r="H5" s="98"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="104" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="19"/>
       <c r="D7" s="5" t="s">
         <v>0</v>
@@ -1879,7 +1894,7 @@
       <c r="M7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="52" t="s">
         <v>25</v>
       </c>
       <c r="O7" s="15" t="s">
@@ -1902,7 +1917,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="95" t="s">
+      <c r="M8" s="93" t="s">
         <v>94</v>
       </c>
       <c r="N8" s="21" t="s">
@@ -1932,7 +1947,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="58">
+      <c r="I9" s="56">
         <v>1.123</v>
       </c>
       <c r="J9" s="8"/>
@@ -2626,107 +2641,107 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="81" t="s">
+      <c r="B35" s="71"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="82"/>
-      <c r="N35" s="81" t="s">
+      <c r="M35" s="80"/>
+      <c r="N35" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="O35" s="81"/>
-      <c r="P35" s="78"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="76"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="96" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="78"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="76"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="61"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="59"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="84"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="5" t="s">
         <v>0</v>
       </c>
@@ -2817,38 +2832,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="str">
+      <c r="A1" s="106" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
     </row>
@@ -2868,15 +2883,15 @@
     </row>
     <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
     </row>
@@ -3039,7 +3054,7 @@
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
+      <c r="A17" s="34">
         <v>1</v>
       </c>
       <c r="B17" s="32" t="str">
@@ -3048,11 +3063,11 @@
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="35" t="str">
+      <c r="E17" s="34" t="str">
         <f>IF(AND(ABS(D17-D19)&lt;1,D17&gt;D19),"*","")</f>
         <v/>
       </c>
-      <c r="F17" s="35"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -3066,7 +3081,7 @@
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="35"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -3075,7 +3090,7 @@
       <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
+      <c r="A19" s="34">
         <v>4</v>
       </c>
       <c r="B19" s="32" t="str">
@@ -3084,11 +3099,11 @@
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="39" t="str">
+      <c r="E19" s="37" t="str">
         <f>IF(AND(ABS(D17-D19)&lt;1,D19&gt;D17),"*","")</f>
         <v/>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -3102,7 +3117,7 @@
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="35"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -3116,7 +3131,7 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="35"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="30" t="s">
@@ -3132,7 +3147,7 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="35"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -3148,9 +3163,9 @@
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="35"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="38" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="27"/>
@@ -3164,9 +3179,9 @@
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="35"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="41"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -3178,15 +3193,15 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="42" t="str">
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="40" t="str">
         <f>H64</f>
         <v/>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="35" t="str">
+      <c r="K25" s="108" t="str">
         <f>IF(AND(ABS(J25-J27)&lt;1,J25&gt;J27),"*","")</f>
         <v/>
       </c>
@@ -3201,12 +3216,12 @@
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
-      <c r="F26" s="35"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
-      <c r="K26" s="27"/>
+      <c r="K26" s="108"/>
       <c r="L26" s="27"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3215,15 +3230,15 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="42" t="str">
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="40" t="str">
         <f>H65</f>
         <v/>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
-      <c r="K27" s="39" t="str">
+      <c r="K27" s="109" t="str">
         <f>IF(AND(ABS(J25-J27)&lt;1,J27&gt;J25),"*","")</f>
         <v/>
       </c>
@@ -3238,12 +3253,12 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="35"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
+      <c r="K28" s="108"/>
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3252,12 +3267,12 @@
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="35"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
+      <c r="K29" s="108"/>
       <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3266,12 +3281,12 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="35"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
+      <c r="K30" s="108"/>
       <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3280,14 +3295,14 @@
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="35"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="38" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="K31" s="108"/>
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3296,12 +3311,12 @@
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
-      <c r="F32" s="35"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+      <c r="K32" s="108"/>
       <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3310,15 +3325,15 @@
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="42" t="str">
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="40" t="str">
         <f>H66</f>
         <v/>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="35" t="str">
+      <c r="K33" s="108" t="str">
         <f>IF(AND(ABS(J33-J35)&lt;1,J33&gt;J35),"*","")</f>
         <v/>
       </c>
@@ -3333,12 +3348,12 @@
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
-      <c r="F34" s="35"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="K34" s="27"/>
+      <c r="K34" s="108"/>
       <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3347,15 +3362,15 @@
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="42" t="str">
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="40" t="str">
         <f>H67</f>
         <v/>
       </c>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
-      <c r="K35" s="39" t="str">
+      <c r="K35" s="109" t="str">
         <f>IF(AND(ABS(J33-J35)&lt;1,J35&gt;J33),"*","")</f>
         <v/>
       </c>
@@ -3370,7 +3385,7 @@
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
-      <c r="F36" s="35"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -3384,7 +3399,7 @@
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
-      <c r="F37" s="35"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -3398,7 +3413,7 @@
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
-      <c r="F38" s="35"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -3412,7 +3427,7 @@
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
-      <c r="F39" s="35"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
@@ -3426,7 +3441,7 @@
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
-      <c r="F40" s="35"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
@@ -3435,7 +3450,7 @@
       <c r="L40" s="27"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="35">
+      <c r="A41" s="34">
         <v>3</v>
       </c>
       <c r="B41" s="32" t="str">
@@ -3444,11 +3459,11 @@
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
-      <c r="E41" s="35" t="str">
+      <c r="E41" s="34" t="str">
         <f>IF(AND(ABS(D41-D43)&lt;1,D41&gt;D43),"*","")</f>
         <v/>
       </c>
-      <c r="F41" s="35"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
@@ -3462,7 +3477,7 @@
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="27"/>
-      <c r="F42" s="35"/>
+      <c r="F42" s="34"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
@@ -3471,7 +3486,7 @@
       <c r="L42" s="27"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="35">
+      <c r="A43" s="34">
         <v>2</v>
       </c>
       <c r="B43" s="32" t="str">
@@ -3480,11 +3495,11 @@
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
-      <c r="E43" s="39" t="str">
+      <c r="E43" s="37" t="str">
         <f>IF(AND(ABS(D41-D43)&lt;1,D43&gt;D41),"*","")</f>
         <v/>
       </c>
-      <c r="F43" s="35"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
@@ -3649,64 +3664,64 @@
     <row r="55" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="61" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="48" t="s">
+      <c r="H63" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="49" t="str">
+      <c r="B64" s="47" t="str">
         <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E9,"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="H64" s="50" t="str">
+      <c r="H64" s="48" t="str">
         <f>B82</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="49" t="str">
+      <c r="B65" s="47" t="str">
         <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E10,"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="H65" s="50" t="str">
+      <c r="H65" s="48" t="str">
         <f>B83</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="49" t="str">
+      <c r="B66" s="47" t="str">
         <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E11,"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="H66" s="50" t="str">
+      <c r="H66" s="48" t="str">
         <f>B84</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="49" t="str">
+      <c r="B67" s="47" t="str">
         <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E12,"BYE")</f>
         <v>BYE</v>
       </c>
@@ -3728,43 +3743,43 @@
     <row r="78" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="G81" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="50" t="str">
+      <c r="B82" s="48" t="str">
         <f>IF(SUM(C17:D17)=SUM(C19:D19),"",IF(SUM(C17:D17)&gt;SUM(C19:D19),B17,B19))</f>
         <v/>
       </c>
-      <c r="C82" s="53"/>
-      <c r="E82" s="53" t="s">
+      <c r="C82" s="51"/>
+      <c r="E82" s="51" t="s">
         <v>43</v>
       </c>
       <c r="G82" s="27">
         <v>1</v>
       </c>
-      <c r="H82" s="50" t="str">
+      <c r="H82" s="48" t="str">
         <f>IF(SUM(I25:J25)=SUM(I27:J27),"",IF(SUM(I25:J25)&gt;SUM(I27:J27),H25,H27))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="50" t="str">
+      <c r="B83" s="48" t="str">
         <f>IF(SUM(C41:D41)=SUM(C43:D43),"",IF(SUM(C41:D41)&gt;SUM(C43:D43),B41,B43))</f>
         <v/>
       </c>
-      <c r="C83" s="53"/>
-      <c r="E83" s="53" t="s">
+      <c r="C83" s="51"/>
+      <c r="E83" s="51" t="s">
         <v>46</v>
       </c>
       <c r="G83" s="27">
         <v>2</v>
       </c>
-      <c r="H83" s="50" t="str">
+      <c r="H83" s="48" t="str">
         <f>IF(SUM(I25:J25)=SUM(I27:J27),"",IF(SUM(I25:J25)&lt;SUM(I27:J27),H25,H27))</f>
         <v/>
       </c>
@@ -3774,8 +3789,8 @@
         <f>IF(SUM(C17:D17)=SUM(C19:D19),"",IF(SUM(C17:D17)&lt;SUM(C19:D19),B17,B19))</f>
         <v/>
       </c>
-      <c r="C84" s="53"/>
-      <c r="E84" s="53" t="s">
+      <c r="C84" s="51"/>
+      <c r="E84" s="51" t="s">
         <v>43</v>
       </c>
       <c r="G84" s="27">
@@ -3791,8 +3806,8 @@
         <f>IF(SUM(C41:D41)=SUM(C43:D43),"",IF(SUM(C41:D41)&lt;SUM(C43:D43),B41,B43))</f>
         <v/>
       </c>
-      <c r="C85" s="52"/>
-      <c r="E85" s="52" t="s">
+      <c r="C85" s="50"/>
+      <c r="E85" s="50" t="s">
         <v>46</v>
       </c>
       <c r="G85" s="27">
@@ -3865,52 +3880,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="str">
+      <c r="A1" s="106" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
     </row>
@@ -3936,21 +3951,21 @@
     </row>
     <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
     </row>
@@ -4068,11 +4083,11 @@
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="35" t="str">
+      <c r="E11" s="31" t="str">
         <f>IF(AND(ABS(D11-D13)&lt;1,D11&gt;D13),"*","")</f>
         <v/>
       </c>
-      <c r="F11" s="35"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -4088,11 +4103,11 @@
     </row>
     <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -4116,11 +4131,11 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="39" t="str">
+      <c r="E13" s="107" t="str">
         <f>IF(AND(ABS(D11-D13)&lt;1,D13&gt;D11),"*","")</f>
         <v/>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -4139,8 +4154,8 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="35"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="30" t="s">
@@ -4161,8 +4176,8 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -4183,8 +4198,8 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="35"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -4203,9 +4218,9 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35">
+      <c r="E17" s="29"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34">
         <v>1</v>
       </c>
       <c r="H17" s="32" t="str">
@@ -4214,11 +4229,11 @@
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="35" t="str">
+      <c r="K17" s="31" t="str">
         <f>IF(AND(ABS(J17-J19)&lt;1,J17&gt;J19),"*","")</f>
         <v/>
       </c>
-      <c r="L17" s="35"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
@@ -4231,14 +4246,14 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="35"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
@@ -4251,9 +4266,9 @@
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35">
+      <c r="E19" s="29"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34">
         <v>4</v>
       </c>
       <c r="H19" s="32" t="str">
@@ -4262,11 +4277,11 @@
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
-      <c r="K19" s="39" t="str">
+      <c r="K19" s="107" t="str">
         <f>IF(AND(ABS(J17-J19)&lt;1,J19&gt;J17),"*","")</f>
         <v/>
       </c>
-      <c r="L19" s="35"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
@@ -4279,14 +4294,14 @@
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="35"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="35"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
@@ -4299,14 +4314,14 @@
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="35"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
       <c r="O21" s="30" t="s">
@@ -4321,14 +4336,14 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="35"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
@@ -4348,19 +4363,19 @@
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="35" t="str">
+      <c r="E23" s="31" t="str">
         <f>IF(AND(ABS(D23-D25)&lt;1,D23&gt;D25),"*","")</f>
         <v/>
       </c>
-      <c r="F23" s="35"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="35"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="27"/>
-      <c r="N23" s="40" t="s">
+      <c r="N23" s="38" t="s">
         <v>33</v>
       </c>
       <c r="O23" s="27"/>
@@ -4373,16 +4388,16 @@
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="35"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="35"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="27"/>
-      <c r="N24" s="41"/>
+      <c r="N24" s="39"/>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
@@ -4398,25 +4413,25 @@
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="39" t="str">
+      <c r="E25" s="107" t="str">
         <f>IF(AND(ABS(D23-D25)&lt;1,D25&gt;D23),"*","")</f>
         <v/>
       </c>
-      <c r="F25" s="35"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="42" t="str">
+      <c r="K25" s="29"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="40" t="str">
         <f>N64</f>
         <v/>
       </c>
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
-      <c r="Q25" s="35" t="str">
+      <c r="Q25" s="108" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -4430,19 +4445,19 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="35"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="34"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
-      <c r="Q26" s="27"/>
+      <c r="Q26" s="108"/>
       <c r="R26" s="27"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4450,22 +4465,22 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="42" t="str">
+      <c r="K27" s="29"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="40" t="str">
         <f>N65</f>
         <v/>
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
-      <c r="Q27" s="39" t="str">
+      <c r="Q27" s="109" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
         <v/>
       </c>
@@ -4479,19 +4494,19 @@
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="35"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="34"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
+      <c r="Q28" s="108"/>
       <c r="R28" s="27"/>
     </row>
     <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4499,19 +4514,19 @@
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="35"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="34"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="Q29" s="108"/>
       <c r="R29" s="27"/>
     </row>
     <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4519,19 +4534,19 @@
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="35"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="34"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="Q30" s="108"/>
       <c r="R30" s="27"/>
     </row>
     <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4539,21 +4554,21 @@
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="35"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="34"/>
       <c r="M31" s="27"/>
-      <c r="N31" s="40" t="s">
+      <c r="N31" s="38" t="s">
         <v>34</v>
       </c>
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="Q31" s="108"/>
       <c r="R31" s="27"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4561,19 +4576,19 @@
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="35"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="34"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
       <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="Q32" s="108"/>
       <c r="R32" s="27"/>
     </row>
     <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4581,22 +4596,22 @@
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="42" t="str">
+      <c r="K33" s="29"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="40" t="str">
         <f>N66</f>
         <v/>
       </c>
       <c r="O33" s="33"/>
       <c r="P33" s="33"/>
-      <c r="Q33" s="35" t="str">
+      <c r="Q33" s="108" t="str">
         <f>IF(AND(ABS(P33-P35)&lt;1,P33&gt;P35),"*","")</f>
         <v/>
       </c>
@@ -4610,19 +4625,19 @@
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="35"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="34"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
       <c r="O34" s="29"/>
       <c r="P34" s="29"/>
-      <c r="Q34" s="27"/>
+      <c r="Q34" s="108"/>
       <c r="R34" s="27"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4635,25 +4650,25 @@
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
-      <c r="E35" s="35" t="str">
+      <c r="E35" s="31" t="str">
         <f>IF(AND(ABS(D35-D37)&lt;1,D35&gt;D37),"*","")</f>
         <v/>
       </c>
-      <c r="F35" s="35"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="42" t="str">
+      <c r="K35" s="29"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="40" t="str">
         <f>N67</f>
         <v/>
       </c>
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
-      <c r="Q35" s="39" t="str">
+      <c r="Q35" s="109" t="str">
         <f>IF(AND(ABS(P33-P35)&lt;1,P35&gt;P33),"*","")</f>
         <v/>
       </c>
@@ -4665,16 +4680,16 @@
     <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="29"/>
       <c r="B36" s="27"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="35"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="34"/>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
@@ -4692,17 +4707,17 @@
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
-      <c r="E37" s="39" t="str">
+      <c r="E37" s="107" t="str">
         <f>IF(AND(ABS(D35-D37)&lt;1,D37&gt;D35),"*","")</f>
         <v/>
       </c>
-      <c r="F37" s="35"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="35"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="34"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
       <c r="O37" s="27"/>
@@ -4715,14 +4730,14 @@
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="35"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="34"/>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
@@ -4735,14 +4750,14 @@
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="35"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="35"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="34"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
       <c r="O39" s="27"/>
@@ -4755,14 +4770,14 @@
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="35"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="35"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="34"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
@@ -4775,9 +4790,9 @@
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35">
+      <c r="E41" s="29"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34">
         <v>3</v>
       </c>
       <c r="H41" s="32" t="str">
@@ -4786,11 +4801,11 @@
       </c>
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="35" t="str">
+      <c r="K41" s="31" t="str">
         <f>IF(AND(ABS(J41-J43)&lt;1,J41&gt;J43),"*","")</f>
         <v/>
       </c>
-      <c r="L41" s="35"/>
+      <c r="L41" s="34"/>
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
       <c r="O41" s="27"/>
@@ -4803,14 +4818,14 @@
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="35"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="34"/>
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
       <c r="O42" s="27"/>
@@ -4823,9 +4838,9 @@
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35">
+      <c r="E43" s="29"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34">
         <v>2</v>
       </c>
       <c r="H43" s="32" t="str">
@@ -4834,11 +4849,11 @@
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="39" t="str">
+      <c r="K43" s="107" t="str">
         <f>IF(AND(ABS(J41-J43)&lt;1,J43&gt;J41),"*","")</f>
         <v/>
       </c>
-      <c r="L43" s="35"/>
+      <c r="L43" s="34"/>
       <c r="M43" s="27"/>
       <c r="N43" s="27"/>
       <c r="O43" s="27"/>
@@ -4851,8 +4866,8 @@
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="35"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="29"/>
@@ -4871,8 +4886,8 @@
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="35"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="29"/>
@@ -4891,8 +4906,8 @@
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="35"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -4916,11 +4931,11 @@
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
-      <c r="E47" s="35" t="str">
+      <c r="E47" s="31" t="str">
         <f>IF(AND(ABS(D47-D49)&lt;1,D47&gt;D49),"*","")</f>
         <v/>
       </c>
-      <c r="F47" s="35"/>
+      <c r="F47" s="34"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -4939,8 +4954,8 @@
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="35"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="34"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4964,11 +4979,11 @@
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
-      <c r="E49" s="39" t="str">
+      <c r="E49" s="107" t="str">
         <f>IF(AND(ABS(D47-D49)&lt;1,D49&gt;D47),"*","")</f>
         <v/>
       </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -5085,89 +5100,89 @@
     <row r="55" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
     </row>
     <row r="61" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="48" t="s">
+      <c r="H63" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="N63" s="48" t="s">
+      <c r="N63" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="49" t="str">
+      <c r="B64" s="47" t="str">
         <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E9,"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="H64" s="50" t="str">
+      <c r="H64" s="48" t="str">
         <f>B82</f>
         <v/>
       </c>
-      <c r="N64" s="50" t="str">
+      <c r="N64" s="48" t="str">
         <f>H82</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="49" t="str">
+      <c r="B65" s="47" t="str">
         <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E10,"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="H65" s="50" t="str">
+      <c r="H65" s="48" t="str">
         <f>B85</f>
         <v/>
       </c>
-      <c r="N65" s="50" t="str">
+      <c r="N65" s="48" t="str">
         <f>H83</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="49" t="str">
+      <c r="B66" s="47" t="str">
         <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E11,"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="H66" s="50" t="str">
+      <c r="H66" s="48" t="str">
         <f>B84</f>
         <v/>
       </c>
-      <c r="N66" s="50" t="str">
+      <c r="N66" s="48" t="str">
         <f>H84</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="49" t="str">
+      <c r="B67" s="47" t="str">
         <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E12,"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="H67" s="50" t="str">
+      <c r="H67" s="48" t="str">
         <f>B83</f>
         <v/>
       </c>
@@ -5177,25 +5192,25 @@
       </c>
     </row>
     <row r="68" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="49" t="str">
+      <c r="B68" s="47" t="str">
         <f>IF(Voorronde!N13&gt;0,"["&amp;Voorronde!D13&amp;"] "&amp;Voorronde!E13,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
     <row r="69" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="49" t="str">
+      <c r="B69" s="47" t="str">
         <f>IF(Voorronde!N14&gt;0,"["&amp;Voorronde!D14&amp;"] "&amp;Voorronde!E14,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
     <row r="70" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="49" t="str">
+      <c r="B70" s="47" t="str">
         <f>IF(Voorronde!N15&gt;0,"["&amp;Voorronde!D15&amp;"] "&amp;Voorronde!E15,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
     <row r="71" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="49" t="str">
+      <c r="B71" s="47" t="str">
         <f>IF(Voorronde!N16&gt;0,"["&amp;Voorronde!D16&amp;"] "&amp;Voorronde!E16,"BYE")</f>
         <v>BYE</v>
       </c>
@@ -5209,81 +5224,81 @@
     <row r="78" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="G81" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="M81" s="51" t="s">
+      <c r="M81" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="50" t="str">
+      <c r="B82" s="48" t="str">
         <f>IF(SUM(C11:D11)=SUM(C13:D13),"",IF(SUM(C11:D11)&gt;SUM(C13:D13),B11,B13))</f>
         <v/>
       </c>
-      <c r="C82" s="53"/>
-      <c r="E82" s="53" t="s">
+      <c r="C82" s="51"/>
+      <c r="E82" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="H82" s="50" t="str">
+      <c r="H82" s="48" t="str">
         <f>IF(SUM(I17:J17)=SUM(I19:J19),"",IF(SUM(I17:J17)&gt;SUM(I19:J19),H17,H19))</f>
         <v/>
       </c>
-      <c r="I82" s="53"/>
-      <c r="K82" s="53" t="s">
+      <c r="I82" s="51"/>
+      <c r="K82" s="51" t="s">
         <v>43</v>
       </c>
       <c r="M82" s="27">
         <v>1</v>
       </c>
-      <c r="N82" s="50" t="str">
+      <c r="N82" s="48" t="str">
         <f>IF(SUM(O25:P25)=SUM(O27:P27),"",IF(SUM(O25:P25)&gt;SUM(O27:P27),N25,N27))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="50" t="str">
+      <c r="B83" s="48" t="str">
         <f>IF(SUM(C23:D23)=SUM(C25:D25),"",IF(SUM(C23:D23)&gt;SUM(C25:D25),B23,B25))</f>
         <v/>
       </c>
-      <c r="C83" s="53"/>
-      <c r="E83" s="53" t="s">
+      <c r="C83" s="51"/>
+      <c r="E83" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H83" s="50" t="str">
+      <c r="H83" s="48" t="str">
         <f>IF(SUM(I41:J41)=SUM(I43:J43),"",IF(SUM(I41:J41)&gt;SUM(I43:J43),H41,H43))</f>
         <v/>
       </c>
-      <c r="I83" s="53"/>
-      <c r="K83" s="53" t="s">
+      <c r="I83" s="51"/>
+      <c r="K83" s="51" t="s">
         <v>46</v>
       </c>
       <c r="M83" s="27">
         <v>2</v>
       </c>
-      <c r="N83" s="50" t="str">
+      <c r="N83" s="48" t="str">
         <f>IF(SUM(O25:P25)=SUM(O27:P27),"",IF(SUM(O25:P25)&lt;SUM(O27:P27),N25,N27))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="50" t="str">
+      <c r="B84" s="48" t="str">
         <f>IF(SUM(C35:D35)=SUM(C37:D37),"",IF(SUM(C35:D35)&gt;SUM(C37:D37),B35,B37))</f>
         <v/>
       </c>
-      <c r="C84" s="53"/>
-      <c r="E84" s="53" t="s">
+      <c r="C84" s="51"/>
+      <c r="E84" s="51" t="s">
         <v>48</v>
       </c>
       <c r="H84" s="27" t="str">
         <f>IF(SUM(I17:J17)=SUM(I19:J19),"",IF(SUM(I17:J17)&lt;SUM(I19:J19),H17,H19))</f>
         <v/>
       </c>
-      <c r="I84" s="53"/>
-      <c r="K84" s="53" t="s">
+      <c r="I84" s="51"/>
+      <c r="K84" s="51" t="s">
         <v>43</v>
       </c>
       <c r="M84" s="27">
@@ -5295,20 +5310,20 @@
       </c>
     </row>
     <row r="85" spans="1:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="50" t="str">
+      <c r="B85" s="48" t="str">
         <f>IF(SUM(C47:D47)=SUM(C49:D49),"",IF(SUM(C47:D47)&gt;SUM(C49:D49),B47,B49))</f>
         <v/>
       </c>
-      <c r="C85" s="53"/>
-      <c r="E85" s="53" t="s">
+      <c r="C85" s="51"/>
+      <c r="E85" s="51" t="s">
         <v>50</v>
       </c>
       <c r="H85" s="27" t="str">
         <f>IF(SUM(I41:J41)=SUM(I43:J43),"",IF(SUM(I41:J41)&lt;SUM(I43:J43),H41,H43))</f>
         <v/>
       </c>
-      <c r="I85" s="52"/>
-      <c r="K85" s="52" t="s">
+      <c r="I85" s="50"/>
+      <c r="K85" s="50" t="s">
         <v>46</v>
       </c>
       <c r="M85" s="27">
@@ -5423,66 +5438,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="str">
+      <c r="A1" s="106" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="28"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
-      <c r="T3" s="107" t="s">
+      <c r="T3" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
       <c r="W3" s="27"/>
       <c r="X3" s="27"/>
     </row>
@@ -5497,7 +5512,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
@@ -5522,15 +5537,15 @@
       <c r="E5" s="28"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
@@ -5553,7 +5568,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
@@ -5573,13 +5588,13 @@
       <c r="B7" s="27"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="28"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="27"/>
       <c r="G7" s="29"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
@@ -5604,18 +5619,18 @@
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="34" t="str">
+      <c r="E8" s="112" t="str">
         <f>IF(AND(ABS(D8-D10)&lt;1,D8&gt;D10),"*","")</f>
         <v/>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="29"/>
       <c r="H8" s="27"/>
       <c r="I8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
@@ -5635,15 +5650,15 @@
       <c r="B9" s="27"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="35"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="29"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
@@ -5668,16 +5683,16 @@
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="36" t="str">
+      <c r="E10" s="113" t="str">
         <f>IF(AND(ABS(D8-D10)&lt;1,D10&gt;D8),"*","")</f>
         <v/>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="29"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
@@ -5697,8 +5712,8 @@
       <c r="B11" s="27"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="31">
         <v>1</v>
       </c>
@@ -5708,11 +5723,11 @@
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
-      <c r="K11" s="35" t="str">
+      <c r="K11" s="31" t="str">
         <f>IF(AND(ABS(J11-J13)&lt;1,J11&gt;J13),"*","")</f>
         <v/>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
@@ -5731,14 +5746,14 @@
       <c r="B12" s="27"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="28"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="27"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
@@ -5757,8 +5772,8 @@
       <c r="B13" s="27"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="35"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="31">
         <v>8</v>
       </c>
@@ -5768,11 +5783,11 @@
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
-      <c r="K13" s="39" t="str">
+      <c r="K13" s="107" t="str">
         <f>IF(AND(ABS(J11-J13)&lt;1,J13&gt;J11),"*","")</f>
         <v/>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
@@ -5796,17 +5811,17 @@
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="34" t="str">
+      <c r="E14" s="112" t="str">
         <f>IF(AND(ABS(D14-D16)&lt;1,D14&gt;D16),"*","")</f>
         <v/>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="29"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="35"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="30" t="s">
@@ -5827,14 +5842,14 @@
       <c r="B15" s="27"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="29"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="35"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
@@ -5860,17 +5875,17 @@
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="36" t="str">
+      <c r="E16" s="113" t="str">
         <f>IF(AND(ABS(D14-D16)&lt;1,D16&gt;D14),"*","")</f>
         <v/>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="29"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="35"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
@@ -5889,15 +5904,15 @@
       <c r="B17" s="27"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="28"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="27"/>
       <c r="G17" s="29"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35">
+      <c r="K17" s="29"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34">
         <v>1</v>
       </c>
       <c r="N17" s="32" t="str">
@@ -5906,11 +5921,11 @@
       </c>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
-      <c r="Q17" s="35" t="str">
+      <c r="Q17" s="31" t="str">
         <f>IF(AND(ABS(P17-P19)&lt;1,P17&gt;P19),"*","")</f>
         <v/>
       </c>
-      <c r="R17" s="35"/>
+      <c r="R17" s="34"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
@@ -5923,20 +5938,20 @@
       <c r="B18" s="27"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="27"/>
       <c r="G18" s="29"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="K18" s="29"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="35"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="34"/>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
@@ -5949,15 +5964,15 @@
       <c r="B19" s="27"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="27"/>
       <c r="G19" s="29"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35">
+      <c r="K19" s="29"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34">
         <v>4</v>
       </c>
       <c r="N19" s="32" t="str">
@@ -5966,11 +5981,11 @@
       </c>
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
-      <c r="Q19" s="39" t="str">
+      <c r="Q19" s="107" t="str">
         <f>IF(AND(ABS(P17-P19)&lt;1,P19&gt;P17),"*","")</f>
         <v/>
       </c>
-      <c r="R19" s="35"/>
+      <c r="R19" s="34"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
@@ -5988,23 +6003,23 @@
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="34" t="str">
+      <c r="E20" s="112" t="str">
         <f>IF(AND(ABS(D20-D22)&lt;1,D20&gt;D22),"*","")</f>
         <v/>
       </c>
-      <c r="F20" s="35"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="29"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="35"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="35"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="34"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
@@ -6017,20 +6032,20 @@
       <c r="B21" s="27"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="29"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="35"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="35"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="34"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
       <c r="U21" s="30" t="s">
@@ -6050,23 +6065,23 @@
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="36" t="str">
+      <c r="E22" s="113" t="str">
         <f>IF(AND(ABS(D20-D22)&lt;1,D22&gt;D20),"*","")</f>
         <v/>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="29"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="35"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="35"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="34"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
@@ -6081,8 +6096,8 @@
       <c r="B23" s="27"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="31">
         <v>5</v>
       </c>
@@ -6092,19 +6107,19 @@
       </c>
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="35" t="str">
+      <c r="K23" s="31" t="str">
         <f>IF(AND(ABS(J23-J25)&lt;1,J23&gt;J25),"*","")</f>
         <v/>
       </c>
-      <c r="L23" s="35"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="35"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="34"/>
       <c r="S23" s="27"/>
-      <c r="T23" s="40" t="s">
+      <c r="T23" s="38" t="s">
         <v>33</v>
       </c>
       <c r="U23" s="27"/>
@@ -6117,22 +6132,22 @@
       <c r="B24" s="27"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="28"/>
+      <c r="E24" s="111"/>
       <c r="F24" s="27"/>
       <c r="G24" s="29"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="35"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="35"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="34"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="41"/>
+      <c r="T24" s="39"/>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
       <c r="W24" s="27"/>
@@ -6143,8 +6158,8 @@
       <c r="B25" s="27"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="35"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="31">
         <v>4</v>
       </c>
@@ -6154,25 +6169,25 @@
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="39" t="str">
+      <c r="K25" s="107" t="str">
         <f>IF(AND(ABS(J23-J25)&lt;1,J25&gt;J23),"*","")</f>
         <v/>
       </c>
-      <c r="L25" s="35"/>
+      <c r="L25" s="34"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="42" t="str">
+      <c r="Q25" s="29"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="40" t="str">
         <f>T64</f>
         <v/>
       </c>
       <c r="U25" s="33"/>
       <c r="V25" s="33"/>
-      <c r="W25" s="35" t="str">
+      <c r="W25" s="108" t="str">
         <f>IF(AND(ABS(V25-V27)&lt;1,V25&gt;V27),"*","")</f>
         <v/>
       </c>
@@ -6191,28 +6206,28 @@
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="34" t="str">
+      <c r="E26" s="112" t="str">
         <f>IF(AND(ABS(D26-D28)&lt;1,D26&gt;D28),"*","")</f>
         <v/>
       </c>
-      <c r="F26" s="35"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="29"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="35"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="34"/>
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
-      <c r="W26" s="27"/>
+      <c r="W26" s="108"/>
       <c r="X26" s="27"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -6220,28 +6235,28 @@
       <c r="B27" s="27"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="35"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="29"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="K27" s="29"/>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="42" t="str">
+      <c r="Q27" s="29"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="40" t="str">
         <f>T65</f>
         <v/>
       </c>
       <c r="U27" s="33"/>
       <c r="V27" s="33"/>
-      <c r="W27" s="39" t="str">
+      <c r="W27" s="109" t="str">
         <f>IF(AND(ABS(V25-V27)&lt;1,V27&gt;V25),"*","")</f>
         <v/>
       </c>
@@ -6260,28 +6275,28 @@
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="36" t="str">
+      <c r="E28" s="113" t="str">
         <f>IF(AND(ABS(D26-D28)&lt;1,D28&gt;D26),"*","")</f>
         <v/>
       </c>
-      <c r="F28" s="35"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="29"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
+      <c r="K28" s="29"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="35"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="34"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
+      <c r="W28" s="108"/>
       <c r="X28" s="27"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
@@ -6289,25 +6304,25 @@
       <c r="B29" s="27"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="28"/>
+      <c r="E29" s="111"/>
       <c r="F29" s="27"/>
       <c r="G29" s="29"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="35"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="34"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
+      <c r="W29" s="108"/>
       <c r="X29" s="27"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -6315,25 +6330,25 @@
       <c r="B30" s="27"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="28"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="27"/>
       <c r="G30" s="29"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
+      <c r="K30" s="29"/>
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="35"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="34"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
+      <c r="W30" s="108"/>
       <c r="X30" s="27"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -6341,27 +6356,27 @@
       <c r="B31" s="27"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="28"/>
+      <c r="E31" s="111"/>
       <c r="F31" s="27"/>
       <c r="G31" s="29"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="K31" s="29"/>
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="35"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="34"/>
       <c r="S31" s="27"/>
-      <c r="T31" s="40" t="s">
+      <c r="T31" s="38" t="s">
         <v>34</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
+      <c r="W31" s="108"/>
       <c r="X31" s="27"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -6374,28 +6389,28 @@
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
-      <c r="E32" s="34" t="str">
+      <c r="E32" s="112" t="str">
         <f>IF(AND(ABS(D32-D34)&lt;1,D32&gt;D34),"*","")</f>
         <v/>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="29"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+      <c r="K32" s="29"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
       <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="35"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="34"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
+      <c r="W32" s="108"/>
       <c r="X32" s="27"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -6403,28 +6418,28 @@
       <c r="B33" s="27"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="35"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="29"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
+      <c r="K33" s="29"/>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
       <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="42" t="str">
+      <c r="Q33" s="29"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="40" t="str">
         <f>T66</f>
         <v/>
       </c>
       <c r="U33" s="33"/>
       <c r="V33" s="33"/>
-      <c r="W33" s="35" t="str">
+      <c r="W33" s="108" t="str">
         <f>IF(AND(ABS(V33-V35)&lt;1,V33&gt;V35),"*","")</f>
         <v/>
       </c>
@@ -6443,28 +6458,28 @@
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="36" t="str">
+      <c r="E34" s="113" t="str">
         <f>IF(AND(ABS(D32-D34)&lt;1,D34&gt;D32),"*","")</f>
         <v/>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="29"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="K34" s="29"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
       <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="35"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="34"/>
       <c r="S34" s="27"/>
       <c r="T34" s="27"/>
       <c r="U34" s="29"/>
       <c r="V34" s="29"/>
-      <c r="W34" s="27"/>
+      <c r="W34" s="108"/>
       <c r="X34" s="27"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -6472,8 +6487,8 @@
       <c r="B35" s="27"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="35"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="31">
         <v>3</v>
       </c>
@@ -6483,25 +6498,25 @@
       </c>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
-      <c r="K35" s="35" t="str">
+      <c r="K35" s="31" t="str">
         <f>IF(AND(ABS(J35-J37)&lt;1,J35&gt;J37),"*","")</f>
         <v/>
       </c>
-      <c r="L35" s="35"/>
+      <c r="L35" s="34"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
       <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="42" t="str">
+      <c r="Q35" s="29"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="40" t="str">
         <f>T67</f>
         <v/>
       </c>
       <c r="U35" s="33"/>
       <c r="V35" s="33"/>
-      <c r="W35" s="39" t="str">
+      <c r="W35" s="109" t="str">
         <f>IF(AND(ABS(V33-V35)&lt;1,V35&gt;V33),"*","")</f>
         <v/>
       </c>
@@ -6515,25 +6530,25 @@
       <c r="B36" s="27"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="28"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="27"/>
       <c r="G36" s="29"/>
       <c r="H36" s="27"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="34"/>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
       <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="35"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="34"/>
       <c r="S36" s="27"/>
       <c r="T36" s="27"/>
       <c r="U36" s="27"/>
       <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
+      <c r="W36" s="108"/>
       <c r="X36" s="27"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -6541,8 +6556,8 @@
       <c r="B37" s="27"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="35"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="31">
         <v>6</v>
       </c>
@@ -6552,17 +6567,17 @@
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
-      <c r="K37" s="39" t="str">
+      <c r="K37" s="107" t="str">
         <f>IF(AND(ABS(J35-J37)&lt;1,J37&gt;J35),"*","")</f>
         <v/>
       </c>
-      <c r="L37" s="35"/>
+      <c r="L37" s="34"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="35"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="34"/>
       <c r="S37" s="27"/>
       <c r="T37" s="27"/>
       <c r="U37" s="27"/>
@@ -6580,23 +6595,23 @@
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
-      <c r="E38" s="34" t="str">
+      <c r="E38" s="112" t="str">
         <f>IF(AND(ABS(D38-D40)&lt;1,D38&gt;D40),"*","")</f>
         <v/>
       </c>
-      <c r="F38" s="35"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="29"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="35"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="34"/>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="35"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="34"/>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="U38" s="27"/>
@@ -6609,20 +6624,20 @@
       <c r="B39" s="27"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="35"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="29"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="35"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="34"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="35"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="34"/>
       <c r="S39" s="27"/>
       <c r="T39" s="27"/>
       <c r="U39" s="27"/>
@@ -6640,23 +6655,23 @@
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
-      <c r="E40" s="36" t="str">
+      <c r="E40" s="113" t="str">
         <f>IF(AND(ABS(D38-D40)&lt;1,D40&gt;D38),"*","")</f>
         <v/>
       </c>
-      <c r="F40" s="35"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="29"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="35"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="34"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
       <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="35"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="34"/>
       <c r="S40" s="27"/>
       <c r="T40" s="27"/>
       <c r="U40" s="27"/>
@@ -6669,15 +6684,15 @@
       <c r="B41" s="27"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="28"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="27"/>
       <c r="G41" s="29"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35">
+      <c r="K41" s="29"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34">
         <v>3</v>
       </c>
       <c r="N41" s="32" t="str">
@@ -6686,11 +6701,11 @@
       </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
-      <c r="Q41" s="35" t="str">
+      <c r="Q41" s="31" t="str">
         <f>IF(AND(ABS(P41-P43)&lt;1,P41&gt;P43),"*","")</f>
         <v/>
       </c>
-      <c r="R41" s="35"/>
+      <c r="R41" s="34"/>
       <c r="S41" s="27"/>
       <c r="T41" s="27"/>
       <c r="U41" s="27"/>
@@ -6703,20 +6718,20 @@
       <c r="B42" s="27"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="E42" s="28"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="27"/>
       <c r="G42" s="29"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
+      <c r="K42" s="29"/>
       <c r="L42" s="27"/>
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="35"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="34"/>
       <c r="S42" s="27"/>
       <c r="T42" s="27"/>
       <c r="U42" s="27"/>
@@ -6729,15 +6744,15 @@
       <c r="B43" s="27"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="E43" s="28"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="27"/>
       <c r="G43" s="29"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35">
+      <c r="K43" s="29"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34">
         <v>2</v>
       </c>
       <c r="N43" s="32" t="str">
@@ -6746,11 +6761,11 @@
       </c>
       <c r="O43" s="33"/>
       <c r="P43" s="33"/>
-      <c r="Q43" s="39" t="str">
+      <c r="Q43" s="107" t="str">
         <f>IF(AND(ABS(P41-P43)&lt;1,P43&gt;P41),"*","")</f>
         <v/>
       </c>
-      <c r="R43" s="35"/>
+      <c r="R43" s="34"/>
       <c r="S43" s="27"/>
       <c r="T43" s="27"/>
       <c r="U43" s="27"/>
@@ -6768,17 +6783,17 @@
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="34" t="str">
+      <c r="E44" s="112" t="str">
         <f>IF(AND(ABS(D44-D46)&lt;1,D44&gt;D46),"*","")</f>
         <v/>
       </c>
-      <c r="F44" s="35"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="29"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="35"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="34"/>
       <c r="M44" s="27"/>
       <c r="N44" s="27"/>
       <c r="O44" s="29"/>
@@ -6797,14 +6812,14 @@
       <c r="B45" s="27"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="35"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="29"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="35"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="34"/>
       <c r="M45" s="27"/>
       <c r="N45" s="27"/>
       <c r="O45" s="29"/>
@@ -6828,17 +6843,17 @@
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
-      <c r="E46" s="36" t="str">
+      <c r="E46" s="113" t="str">
         <f>IF(AND(ABS(D44-D46)&lt;1,D46&gt;D44),"*","")</f>
         <v/>
       </c>
-      <c r="F46" s="35"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="29"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="35"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="34"/>
       <c r="M46" s="27"/>
       <c r="N46" s="27"/>
       <c r="O46" s="27"/>
@@ -6857,8 +6872,8 @@
       <c r="B47" s="27"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="35"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="34"/>
       <c r="G47" s="31">
         <v>7</v>
       </c>
@@ -6868,11 +6883,11 @@
       </c>
       <c r="I47" s="33"/>
       <c r="J47" s="33"/>
-      <c r="K47" s="35" t="str">
+      <c r="K47" s="31" t="str">
         <f>IF(AND(ABS(J47-J49)&lt;1,J47&gt;J49),"*","")</f>
         <v/>
       </c>
-      <c r="L47" s="35"/>
+      <c r="L47" s="34"/>
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
       <c r="O47" s="27"/>
@@ -6891,14 +6906,14 @@
       <c r="B48" s="27"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="28"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="27"/>
       <c r="G48" s="29"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="35"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="34"/>
       <c r="M48" s="27"/>
       <c r="N48" s="27"/>
       <c r="O48" s="27"/>
@@ -6917,8 +6932,8 @@
       <c r="B49" s="27"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="35"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="31">
         <v>2</v>
       </c>
@@ -6928,11 +6943,11 @@
       </c>
       <c r="I49" s="33"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="39" t="str">
+      <c r="K49" s="107" t="str">
         <f>IF(AND(ABS(J47-J49)&lt;1,J49&gt;J47),"*","")</f>
         <v/>
       </c>
-      <c r="L49" s="35"/>
+      <c r="L49" s="34"/>
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
       <c r="O49" s="27"/>
@@ -6956,16 +6971,16 @@
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="34" t="str">
+      <c r="E50" s="112" t="str">
         <f>IF(AND(ABS(D50-D52)&lt;1,D50&gt;D52),"*","")</f>
         <v/>
       </c>
-      <c r="F50" s="35"/>
+      <c r="F50" s="34"/>
       <c r="G50" s="29"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
+      <c r="K50" s="29"/>
       <c r="L50" s="27"/>
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
@@ -6985,13 +7000,13 @@
       <c r="B51" s="27"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="35"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="34"/>
       <c r="G51" s="29"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
+      <c r="K51" s="29"/>
       <c r="L51" s="27"/>
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
@@ -7016,11 +7031,11 @@
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
-      <c r="E52" s="36" t="str">
+      <c r="E52" s="113" t="str">
         <f>IF(AND(ABS(D50-D52)&lt;1,D52&gt;D50),"*","")</f>
         <v/>
       </c>
-      <c r="F52" s="35"/>
+      <c r="F52" s="34"/>
       <c r="G52" s="29"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -7045,7 +7060,7 @@
       <c r="B53" s="27"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="28"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -7071,7 +7086,7 @@
       <c r="B54" s="27"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="28"/>
+      <c r="E54" s="111"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
@@ -7095,131 +7110,131 @@
     <row r="55" spans="1:24" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="41"/>
     </row>
     <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48" t="s">
+      <c r="A63" s="45"/>
+      <c r="B63" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="48" t="s">
+      <c r="H63" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="N63" s="48" t="s">
+      <c r="N63" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="T63" s="48" t="s">
+      <c r="T63" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
-      <c r="B64" s="49" t="str">
+      <c r="B64" s="47" t="str">
         <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E9,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="28"/>
-      <c r="H64" s="50" t="str">
+      <c r="H64" s="48" t="str">
         <f>B82</f>
         <v/>
       </c>
-      <c r="N64" s="50" t="str">
+      <c r="N64" s="48" t="str">
         <f>H82</f>
         <v/>
       </c>
-      <c r="T64" s="50" t="str">
+      <c r="T64" s="48" t="str">
         <f>N82</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
-      <c r="B65" s="49" t="str">
+      <c r="B65" s="47" t="str">
         <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E10,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="28"/>
-      <c r="H65" s="50" t="str">
+      <c r="H65" s="48" t="str">
         <f>B89</f>
         <v/>
       </c>
-      <c r="N65" s="50" t="str">
+      <c r="N65" s="48" t="str">
         <f>H85</f>
         <v/>
       </c>
-      <c r="T65" s="50" t="str">
+      <c r="T65" s="48" t="str">
         <f>N83</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
-      <c r="B66" s="49" t="str">
+      <c r="B66" s="47" t="str">
         <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E11,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="28"/>
-      <c r="H66" s="50" t="str">
+      <c r="H66" s="48" t="str">
         <f>B86</f>
         <v/>
       </c>
-      <c r="N66" s="50" t="str">
+      <c r="N66" s="48" t="str">
         <f>H84</f>
         <v/>
       </c>
-      <c r="T66" s="50" t="str">
+      <c r="T66" s="48" t="str">
         <f>N84</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
-      <c r="B67" s="49" t="str">
+      <c r="B67" s="47" t="str">
         <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E12,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="28"/>
-      <c r="H67" s="50" t="str">
+      <c r="H67" s="48" t="str">
         <f>B85</f>
         <v/>
       </c>
-      <c r="N67" s="50" t="str">
+      <c r="N67" s="48" t="str">
         <f>H83</f>
         <v/>
       </c>
@@ -7230,63 +7245,63 @@
     </row>
     <row r="68" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
-      <c r="B68" s="49" t="str">
+      <c r="B68" s="47" t="str">
         <f>IF(Voorronde!N13&gt;0,"["&amp;Voorronde!D13&amp;"] "&amp;Voorronde!E13,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="28"/>
-      <c r="H68" s="50" t="str">
+      <c r="H68" s="48" t="str">
         <f>B84</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
-      <c r="B69" s="49" t="str">
+      <c r="B69" s="47" t="str">
         <f>IF(Voorronde!N14&gt;0,"["&amp;Voorronde!D14&amp;"] "&amp;Voorronde!E14,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="28"/>
-      <c r="H69" s="50" t="str">
+      <c r="H69" s="48" t="str">
         <f>B87</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
-      <c r="B70" s="49" t="str">
+      <c r="B70" s="47" t="str">
         <f>IF(Voorronde!N15&gt;0,"["&amp;Voorronde!D15&amp;"] "&amp;Voorronde!E15,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="28"/>
-      <c r="H70" s="50" t="str">
+      <c r="H70" s="48" t="str">
         <f>B88</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="30"/>
-      <c r="B71" s="49" t="str">
+      <c r="B71" s="47" t="str">
         <f>IF(Voorronde!N16&gt;0,"["&amp;Voorronde!D16&amp;"] "&amp;Voorronde!E16,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="28"/>
-      <c r="H71" s="50" t="str">
+      <c r="H71" s="48" t="str">
         <f>B83</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="30"/>
-      <c r="B72" s="49" t="str">
+      <c r="B72" s="47" t="str">
         <f>IF(Voorronde!N17&gt;0,"["&amp;Voorronde!D17&amp;"] "&amp;Voorronde!E17,"BYE")</f>
         <v>BYE</v>
       </c>
@@ -7296,7 +7311,7 @@
     </row>
     <row r="73" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="30"/>
-      <c r="B73" s="49" t="str">
+      <c r="B73" s="47" t="str">
         <f>IF(Voorronde!N18&gt;0,"["&amp;Voorronde!D18&amp;"] "&amp;Voorronde!E18,"BYE")</f>
         <v>BYE</v>
       </c>
@@ -7306,7 +7321,7 @@
     </row>
     <row r="74" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="30"/>
-      <c r="B74" s="49" t="str">
+      <c r="B74" s="47" t="str">
         <f>IF(Voorronde!N19&gt;0,"["&amp;Voorronde!D19&amp;"] "&amp;Voorronde!E19,"BYE")</f>
         <v>BYE</v>
       </c>
@@ -7316,7 +7331,7 @@
     </row>
     <row r="75" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="30"/>
-      <c r="B75" s="49" t="str">
+      <c r="B75" s="47" t="str">
         <f>IF(Voorronde!N20&gt;0,"["&amp;Voorronde!D20&amp;"] "&amp;Voorronde!E20,"BYE")</f>
         <v>BYE</v>
       </c>
@@ -7326,7 +7341,7 @@
     </row>
     <row r="76" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="30"/>
-      <c r="B76" s="49" t="str">
+      <c r="B76" s="47" t="str">
         <f>IF(Voorronde!N21&gt;0,"["&amp;Voorronde!D21&amp;"] "&amp;Voorronde!E21,"BYE")</f>
         <v>BYE</v>
       </c>
@@ -7336,7 +7351,7 @@
     </row>
     <row r="77" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="30"/>
-      <c r="B77" s="49" t="str">
+      <c r="B77" s="47" t="str">
         <f>IF(Voorronde!N22&gt;0,"["&amp;Voorronde!D22&amp;"] "&amp;Voorronde!E22,"BYE")</f>
         <v>BYE</v>
       </c>
@@ -7346,7 +7361,7 @@
     </row>
     <row r="78" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="30"/>
-      <c r="B78" s="49" t="str">
+      <c r="B78" s="47" t="str">
         <f>IF(Voorronde!N23&gt;0,"["&amp;Voorronde!D23&amp;"] "&amp;Voorronde!E23,"BYE")</f>
         <v>BYE</v>
       </c>
@@ -7356,7 +7371,7 @@
     </row>
     <row r="79" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="30"/>
-      <c r="B79" s="49" t="str">
+      <c r="B79" s="47" t="str">
         <f>IF(Voorronde!N24&gt;0,"["&amp;Voorronde!D24&amp;"] "&amp;Voorronde!E24,"BYE")</f>
         <v>BYE</v>
       </c>
@@ -7365,114 +7380,114 @@
       <c r="E79" s="28"/>
     </row>
     <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="G81" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="M81" s="51" t="s">
+      <c r="M81" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="S81" s="51" t="s">
+      <c r="S81" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:20" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="30"/>
-      <c r="B82" s="50" t="str">
+      <c r="B82" s="48" t="str">
         <f>IF(SUM(C8:D8)=SUM(C10:D10),"",IF(SUM(C8:D8)&gt;SUM(C10:D10),B8,B10))</f>
         <v/>
       </c>
-      <c r="C82" s="52"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="29"/>
-      <c r="E82" s="52" t="s">
+      <c r="E82" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="H82" s="50" t="str">
+      <c r="H82" s="48" t="str">
         <f>IF(SUM(I11:J11)=SUM(I13:J13),"",IF(SUM(I11:J11)&gt;SUM(I13:J13),H11,H13))</f>
         <v/>
       </c>
-      <c r="I82" s="53"/>
-      <c r="K82" s="53" t="s">
+      <c r="I82" s="51"/>
+      <c r="K82" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="N82" s="50" t="str">
+      <c r="N82" s="48" t="str">
         <f>IF(SUM(O17:P17)=SUM(O19:P19),"",IF(SUM(O17:P17)&gt;SUM(O19:P19),N17,N19))</f>
         <v/>
       </c>
-      <c r="O82" s="53"/>
-      <c r="Q82" s="53" t="s">
+      <c r="O82" s="51"/>
+      <c r="Q82" s="51" t="s">
         <v>43</v>
       </c>
       <c r="S82" s="27">
         <v>1</v>
       </c>
-      <c r="T82" s="50" t="str">
+      <c r="T82" s="48" t="str">
         <f>IF(SUM(U25:V25)=SUM(U27:V27),"",IF(SUM(U25:V25)&gt;SUM(U27:V27),T25,T27))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:20" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="30"/>
-      <c r="B83" s="50" t="str">
+      <c r="B83" s="48" t="str">
         <f>IF(SUM(C14:D14)=SUM(C16:D16),"",IF(SUM(C14:D14)&gt;SUM(C16:D16),B14,B16))</f>
         <v/>
       </c>
-      <c r="C83" s="53"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="29"/>
-      <c r="E83" s="53" t="s">
+      <c r="E83" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="H83" s="50" t="str">
+      <c r="H83" s="48" t="str">
         <f>IF(SUM(I23:J23)=SUM(I25:J25),"",IF(SUM(I23:J23)&gt;SUM(I25:J25),H23,H25))</f>
         <v/>
       </c>
-      <c r="I83" s="53"/>
-      <c r="K83" s="53" t="s">
+      <c r="I83" s="51"/>
+      <c r="K83" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="N83" s="50" t="str">
+      <c r="N83" s="48" t="str">
         <f>IF(SUM(O41:P41)=SUM(O43:P43),"",IF(SUM(O41:P41)&gt;SUM(O43:P43),N41,N43))</f>
         <v/>
       </c>
-      <c r="O83" s="53"/>
-      <c r="Q83" s="53" t="s">
+      <c r="O83" s="51"/>
+      <c r="Q83" s="51" t="s">
         <v>46</v>
       </c>
       <c r="S83" s="27">
         <v>2</v>
       </c>
-      <c r="T83" s="50" t="str">
+      <c r="T83" s="48" t="str">
         <f>IF(SUM(U25:V25)=SUM(U27:V27),"",IF(SUM(U25:V25)&lt;SUM(U27:V27),T25,T27))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:20" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="30"/>
-      <c r="B84" s="50" t="str">
+      <c r="B84" s="48" t="str">
         <f>IF(SUM(C20:D20)=SUM(C22:D22),"",IF(SUM(C20:D20)&gt;SUM(C22:D22),B20,B22))</f>
         <v/>
       </c>
-      <c r="C84" s="53"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="29"/>
-      <c r="E84" s="53" t="s">
+      <c r="E84" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H84" s="50" t="str">
+      <c r="H84" s="48" t="str">
         <f>IF(SUM(I35:J35)=SUM(I37:J37),"",IF(SUM(I35:J35)&gt;SUM(I37:J37),H35,H37))</f>
         <v/>
       </c>
-      <c r="I84" s="53"/>
-      <c r="K84" s="53" t="s">
+      <c r="I84" s="51"/>
+      <c r="K84" s="51" t="s">
         <v>48</v>
       </c>
       <c r="N84" s="27" t="str">
         <f>IF(SUM(O17:P17)=SUM(O19:P19),"",IF(SUM(O17:P17)&lt;SUM(O19:P19),N17,N19))</f>
         <v/>
       </c>
-      <c r="O84" s="53"/>
-      <c r="Q84" s="53" t="s">
+      <c r="O84" s="51"/>
+      <c r="Q84" s="51" t="s">
         <v>43</v>
       </c>
       <c r="S84" s="27">
@@ -7485,29 +7500,29 @@
     </row>
     <row r="85" spans="1:20" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="30"/>
-      <c r="B85" s="50" t="str">
+      <c r="B85" s="48" t="str">
         <f>IF(SUM(C26:D26)=SUM(C28:D28),"",IF(SUM(C26:D26)&gt;SUM(C28:D28),B26,B28))</f>
         <v/>
       </c>
-      <c r="C85" s="53"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="29"/>
-      <c r="E85" s="53" t="s">
+      <c r="E85" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="H85" s="50" t="str">
+      <c r="H85" s="48" t="str">
         <f>IF(SUM(I47:J47)=SUM(I49:J49),"",IF(SUM(I47:J47)&gt;SUM(I49:J49),H47,H49))</f>
         <v/>
       </c>
-      <c r="I85" s="53"/>
-      <c r="K85" s="53" t="s">
+      <c r="I85" s="51"/>
+      <c r="K85" s="51" t="s">
         <v>50</v>
       </c>
       <c r="N85" s="27" t="str">
         <f>IF(SUM(O41:P41)=SUM(O43:P43),"",IF(SUM(O41:P41)&lt;SUM(O43:P43),N41,N43))</f>
         <v/>
       </c>
-      <c r="O85" s="52"/>
-      <c r="Q85" s="52" t="s">
+      <c r="O85" s="50"/>
+      <c r="Q85" s="50" t="s">
         <v>46</v>
       </c>
       <c r="S85" s="27">
@@ -7520,13 +7535,13 @@
     </row>
     <row r="86" spans="1:20" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="30"/>
-      <c r="B86" s="50" t="str">
+      <c r="B86" s="48" t="str">
         <f>IF(SUM(C32:D32)=SUM(C34:D34),"",IF(SUM(C32:D32)&gt;SUM(C34:D34),B32,B34))</f>
         <v/>
       </c>
-      <c r="C86" s="53"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="29"/>
-      <c r="E86" s="53" t="s">
+      <c r="E86" s="51" t="s">
         <v>51</v>
       </c>
       <c r="G86" s="27">
@@ -7540,13 +7555,13 @@
     </row>
     <row r="87" spans="1:20" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="30"/>
-      <c r="B87" s="50" t="str">
+      <c r="B87" s="48" t="str">
         <f>IF(SUM(C38:D38)=SUM(C40:D40),"",IF(SUM(C38:D38)&gt;SUM(C40:D40),B38,B40))</f>
         <v/>
       </c>
-      <c r="C87" s="53"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="29"/>
-      <c r="E87" s="53" t="s">
+      <c r="E87" s="51" t="s">
         <v>52</v>
       </c>
       <c r="G87" s="27">
@@ -7560,13 +7575,13 @@
     </row>
     <row r="88" spans="1:20" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="30"/>
-      <c r="B88" s="50" t="str">
+      <c r="B88" s="48" t="str">
         <f>IF(SUM(C44:D44)=SUM(C46:D46),"",IF(SUM(C44:D44)&gt;SUM(C46:D46),B44,B46))</f>
         <v/>
       </c>
-      <c r="C88" s="53"/>
+      <c r="C88" s="51"/>
       <c r="D88" s="29"/>
-      <c r="E88" s="53" t="s">
+      <c r="E88" s="51" t="s">
         <v>53</v>
       </c>
       <c r="G88" s="27">
@@ -7580,13 +7595,13 @@
     </row>
     <row r="89" spans="1:20" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="30"/>
-      <c r="B89" s="50" t="str">
+      <c r="B89" s="48" t="str">
         <f>IF(SUM(C50:D50)=SUM(C52:D52),"",IF(SUM(C50:D50)&gt;SUM(C52:D52),B50,B52))</f>
         <v/>
       </c>
-      <c r="C89" s="53"/>
+      <c r="C89" s="51"/>
       <c r="D89" s="29"/>
-      <c r="E89" s="53" t="s">
+      <c r="E89" s="51" t="s">
         <v>54</v>
       </c>
       <c r="G89" s="27">

--- a/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E0110-2D24-431F-9458-20272D91D8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23BB500-8078-425F-BF78-3D60D0216BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1260" windowWidth="22440" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="945" windowWidth="22440" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="3" r:id="rId1"/>
@@ -688,7 +688,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -963,6 +963,24 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1012,27 +1030,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1040,7 +1037,47 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{175D33A7-1F9B-4AB2-8F78-FE93C7A8B6CF}"/>
     <cellStyle name="Standaard_Vers" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1398,7 +1435,7 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1708,7 +1745,9 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1734,7 +1773,7 @@
     <col min="24" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -1753,7 +1792,7 @@
       <c r="P1" s="59"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -1794,19 +1833,19 @@
     <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="101"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="107"/>
       <c r="N4" s="70"/>
       <c r="O4" s="70"/>
       <c r="P4" s="70"/>
@@ -1816,24 +1855,24 @@
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="63"/>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="98"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="83"/>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="104"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
       <c r="N5" s="68"/>
       <c r="O5" s="68"/>
       <c r="P5" s="68"/>
@@ -1849,10 +1888,10 @@
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
       <c r="I6" s="66"/>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="102"/>
+      <c r="K6" s="108"/>
       <c r="L6" s="68"/>
       <c r="M6" s="69"/>
       <c r="N6" s="68"/>
@@ -1861,10 +1900,10 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="19"/>
       <c r="D7" s="5" t="s">
         <v>0</v>
@@ -2700,13 +2739,13 @@
       <c r="G36" s="77"/>
       <c r="H36" s="76"/>
       <c r="I36" s="78"/>
-      <c r="J36" s="94" t="s">
+      <c r="J36" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
       <c r="O36" s="80"/>
       <c r="P36" s="76"/>
       <c r="Q36"/>
@@ -2726,11 +2765,11 @@
       <c r="G37" s="61"/>
       <c r="H37" s="59"/>
       <c r="I37" s="81"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
       <c r="O37" s="80"/>
       <c r="P37" s="59"/>
       <c r="Q37"/>
@@ -2791,10 +2830,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="N9:N33">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.35433070866141736" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2832,38 +2871,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="str">
+      <c r="A1" s="112" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
     </row>
@@ -3201,7 +3240,7 @@
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="108" t="str">
+      <c r="K25" s="29" t="str">
         <f>IF(AND(ABS(J25-J27)&lt;1,J25&gt;J27),"*","")</f>
         <v/>
       </c>
@@ -3221,7 +3260,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
-      <c r="K26" s="108"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="27"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3238,7 +3277,7 @@
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
-      <c r="K27" s="109" t="str">
+      <c r="K27" s="95" t="str">
         <f>IF(AND(ABS(J25-J27)&lt;1,J27&gt;J25),"*","")</f>
         <v/>
       </c>
@@ -3258,7 +3297,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="108"/>
+      <c r="K28" s="29"/>
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3272,7 +3311,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
-      <c r="K29" s="108"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3286,7 +3325,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
-      <c r="K30" s="108"/>
+      <c r="K30" s="29"/>
       <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3302,7 +3341,7 @@
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
-      <c r="K31" s="108"/>
+      <c r="K31" s="29"/>
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3316,7 +3355,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="108"/>
+      <c r="K32" s="29"/>
       <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3333,7 +3372,7 @@
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="108" t="str">
+      <c r="K33" s="29" t="str">
         <f>IF(AND(ABS(J33-J35)&lt;1,J33&gt;J35),"*","")</f>
         <v/>
       </c>
@@ -3353,7 +3392,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="K34" s="108"/>
+      <c r="K34" s="29"/>
       <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3370,7 +3409,7 @@
       </c>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
-      <c r="K35" s="109" t="str">
+      <c r="K35" s="95" t="str">
         <f>IF(AND(ABS(J33-J35)&lt;1,J35&gt;J33),"*","")</f>
         <v/>
       </c>
@@ -3880,52 +3919,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="str">
+      <c r="A1" s="112" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
     </row>
     <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
-      <c r="N3" s="105" t="s">
+      <c r="N3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
     </row>
@@ -4131,7 +4170,7 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="107" t="str">
+      <c r="E13" s="94" t="str">
         <f>IF(AND(ABS(D11-D13)&lt;1,D13&gt;D11),"*","")</f>
         <v/>
       </c>
@@ -4277,7 +4316,7 @@
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
-      <c r="K19" s="107" t="str">
+      <c r="K19" s="94" t="str">
         <f>IF(AND(ABS(J17-J19)&lt;1,J19&gt;J17),"*","")</f>
         <v/>
       </c>
@@ -4413,7 +4452,7 @@
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="107" t="str">
+      <c r="E25" s="94" t="str">
         <f>IF(AND(ABS(D23-D25)&lt;1,D25&gt;D23),"*","")</f>
         <v/>
       </c>
@@ -4431,7 +4470,7 @@
       </c>
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
-      <c r="Q25" s="108" t="str">
+      <c r="Q25" s="29" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -4457,7 +4496,7 @@
       <c r="N26" s="27"/>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
-      <c r="Q26" s="108"/>
+      <c r="Q26" s="29"/>
       <c r="R26" s="27"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4480,7 +4519,7 @@
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
-      <c r="Q27" s="109" t="str">
+      <c r="Q27" s="95" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
         <v/>
       </c>
@@ -4506,7 +4545,7 @@
       <c r="N28" s="27"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
-      <c r="Q28" s="108"/>
+      <c r="Q28" s="29"/>
       <c r="R28" s="27"/>
     </row>
     <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4526,7 +4565,7 @@
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
-      <c r="Q29" s="108"/>
+      <c r="Q29" s="29"/>
       <c r="R29" s="27"/>
     </row>
     <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4546,7 +4585,7 @@
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="108"/>
+      <c r="Q30" s="29"/>
       <c r="R30" s="27"/>
     </row>
     <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4568,7 +4607,7 @@
       </c>
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
-      <c r="Q31" s="108"/>
+      <c r="Q31" s="29"/>
       <c r="R31" s="27"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4588,7 +4627,7 @@
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
       <c r="P32" s="27"/>
-      <c r="Q32" s="108"/>
+      <c r="Q32" s="29"/>
       <c r="R32" s="27"/>
     </row>
     <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4611,7 +4650,7 @@
       </c>
       <c r="O33" s="33"/>
       <c r="P33" s="33"/>
-      <c r="Q33" s="108" t="str">
+      <c r="Q33" s="29" t="str">
         <f>IF(AND(ABS(P33-P35)&lt;1,P33&gt;P35),"*","")</f>
         <v/>
       </c>
@@ -4637,7 +4676,7 @@
       <c r="N34" s="27"/>
       <c r="O34" s="29"/>
       <c r="P34" s="29"/>
-      <c r="Q34" s="108"/>
+      <c r="Q34" s="29"/>
       <c r="R34" s="27"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -4668,7 +4707,7 @@
       </c>
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
-      <c r="Q35" s="109" t="str">
+      <c r="Q35" s="95" t="str">
         <f>IF(AND(ABS(P33-P35)&lt;1,P35&gt;P33),"*","")</f>
         <v/>
       </c>
@@ -4707,7 +4746,7 @@
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
-      <c r="E37" s="107" t="str">
+      <c r="E37" s="94" t="str">
         <f>IF(AND(ABS(D35-D37)&lt;1,D37&gt;D35),"*","")</f>
         <v/>
       </c>
@@ -4849,7 +4888,7 @@
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="107" t="str">
+      <c r="K43" s="94" t="str">
         <f>IF(AND(ABS(J41-J43)&lt;1,J43&gt;J41),"*","")</f>
         <v/>
       </c>
@@ -4979,7 +5018,7 @@
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
-      <c r="E49" s="107" t="str">
+      <c r="E49" s="94" t="str">
         <f>IF(AND(ABS(D47-D49)&lt;1,D49&gt;D47),"*","")</f>
         <v/>
       </c>
@@ -5438,66 +5477,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="str">
+      <c r="A1" s="112" t="str">
         <f>"Finales "&amp;Voorronde!C4</f>
         <v>Finales BK, seizoen, klasse</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="28"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
-      <c r="N3" s="105" t="s">
+      <c r="N3" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
-      <c r="T3" s="105" t="s">
+      <c r="T3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
       <c r="W3" s="27"/>
       <c r="X3" s="27"/>
     </row>
@@ -5540,7 +5579,7 @@
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="110"/>
+      <c r="K5" s="96"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
@@ -5588,7 +5627,7 @@
       <c r="B7" s="27"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="111"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="27"/>
       <c r="G7" s="29"/>
       <c r="H7" s="27"/>
@@ -5619,7 +5658,7 @@
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="112" t="str">
+      <c r="E8" s="98" t="str">
         <f>IF(AND(ABS(D8-D10)&lt;1,D8&gt;D10),"*","")</f>
         <v/>
       </c>
@@ -5650,7 +5689,7 @@
       <c r="B9" s="27"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="111"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="34"/>
       <c r="G9" s="29"/>
       <c r="H9" s="27"/>
@@ -5683,7 +5722,7 @@
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="113" t="str">
+      <c r="E10" s="99" t="str">
         <f>IF(AND(ABS(D8-D10)&lt;1,D10&gt;D8),"*","")</f>
         <v/>
       </c>
@@ -5712,7 +5751,7 @@
       <c r="B11" s="27"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="111"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="34"/>
       <c r="G11" s="31">
         <v>1</v>
@@ -5746,7 +5785,7 @@
       <c r="B12" s="27"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="111"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="27"/>
       <c r="G12" s="29"/>
       <c r="H12" s="35"/>
@@ -5772,7 +5811,7 @@
       <c r="B13" s="27"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="111"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="34"/>
       <c r="G13" s="31">
         <v>8</v>
@@ -5783,7 +5822,7 @@
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
-      <c r="K13" s="107" t="str">
+      <c r="K13" s="94" t="str">
         <f>IF(AND(ABS(J11-J13)&lt;1,J13&gt;J11),"*","")</f>
         <v/>
       </c>
@@ -5811,7 +5850,7 @@
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="112" t="str">
+      <c r="E14" s="98" t="str">
         <f>IF(AND(ABS(D14-D16)&lt;1,D14&gt;D16),"*","")</f>
         <v/>
       </c>
@@ -5842,7 +5881,7 @@
       <c r="B15" s="27"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="111"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="34"/>
       <c r="G15" s="29"/>
       <c r="H15" s="27"/>
@@ -5875,7 +5914,7 @@
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="113" t="str">
+      <c r="E16" s="99" t="str">
         <f>IF(AND(ABS(D14-D16)&lt;1,D16&gt;D14),"*","")</f>
         <v/>
       </c>
@@ -5904,7 +5943,7 @@
       <c r="B17" s="27"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="111"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="27"/>
       <c r="G17" s="29"/>
       <c r="H17" s="27"/>
@@ -5938,7 +5977,7 @@
       <c r="B18" s="27"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="111"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="27"/>
       <c r="G18" s="29"/>
       <c r="H18" s="27"/>
@@ -5964,7 +6003,7 @@
       <c r="B19" s="27"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="111"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="27"/>
       <c r="G19" s="29"/>
       <c r="H19" s="27"/>
@@ -5981,7 +6020,7 @@
       </c>
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
-      <c r="Q19" s="107" t="str">
+      <c r="Q19" s="94" t="str">
         <f>IF(AND(ABS(P17-P19)&lt;1,P19&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -6003,7 +6042,7 @@
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="112" t="str">
+      <c r="E20" s="98" t="str">
         <f>IF(AND(ABS(D20-D22)&lt;1,D20&gt;D22),"*","")</f>
         <v/>
       </c>
@@ -6032,7 +6071,7 @@
       <c r="B21" s="27"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="111"/>
+      <c r="E21" s="97"/>
       <c r="F21" s="34"/>
       <c r="G21" s="29"/>
       <c r="H21" s="27"/>
@@ -6065,7 +6104,7 @@
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="113" t="str">
+      <c r="E22" s="99" t="str">
         <f>IF(AND(ABS(D20-D22)&lt;1,D22&gt;D20),"*","")</f>
         <v/>
       </c>
@@ -6096,7 +6135,7 @@
       <c r="B23" s="27"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="111"/>
+      <c r="E23" s="97"/>
       <c r="F23" s="34"/>
       <c r="G23" s="31">
         <v>5</v>
@@ -6132,7 +6171,7 @@
       <c r="B24" s="27"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="111"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="27"/>
       <c r="G24" s="29"/>
       <c r="H24" s="27"/>
@@ -6158,7 +6197,7 @@
       <c r="B25" s="27"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="111"/>
+      <c r="E25" s="97"/>
       <c r="F25" s="34"/>
       <c r="G25" s="31">
         <v>4</v>
@@ -6169,7 +6208,7 @@
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="107" t="str">
+      <c r="K25" s="94" t="str">
         <f>IF(AND(ABS(J23-J25)&lt;1,J25&gt;J23),"*","")</f>
         <v/>
       </c>
@@ -6187,7 +6226,7 @@
       </c>
       <c r="U25" s="33"/>
       <c r="V25" s="33"/>
-      <c r="W25" s="108" t="str">
+      <c r="W25" s="29" t="str">
         <f>IF(AND(ABS(V25-V27)&lt;1,V25&gt;V27),"*","")</f>
         <v/>
       </c>
@@ -6206,7 +6245,7 @@
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="112" t="str">
+      <c r="E26" s="98" t="str">
         <f>IF(AND(ABS(D26-D28)&lt;1,D26&gt;D28),"*","")</f>
         <v/>
       </c>
@@ -6227,7 +6266,7 @@
       <c r="T26" s="27"/>
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
-      <c r="W26" s="108"/>
+      <c r="W26" s="29"/>
       <c r="X26" s="27"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -6235,7 +6274,7 @@
       <c r="B27" s="27"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="111"/>
+      <c r="E27" s="97"/>
       <c r="F27" s="34"/>
       <c r="G27" s="29"/>
       <c r="H27" s="27"/>
@@ -6256,7 +6295,7 @@
       </c>
       <c r="U27" s="33"/>
       <c r="V27" s="33"/>
-      <c r="W27" s="109" t="str">
+      <c r="W27" s="95" t="str">
         <f>IF(AND(ABS(V25-V27)&lt;1,V27&gt;V25),"*","")</f>
         <v/>
       </c>
@@ -6275,7 +6314,7 @@
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="113" t="str">
+      <c r="E28" s="99" t="str">
         <f>IF(AND(ABS(D26-D28)&lt;1,D28&gt;D26),"*","")</f>
         <v/>
       </c>
@@ -6296,7 +6335,7 @@
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="108"/>
+      <c r="W28" s="29"/>
       <c r="X28" s="27"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
@@ -6304,7 +6343,7 @@
       <c r="B29" s="27"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="111"/>
+      <c r="E29" s="97"/>
       <c r="F29" s="27"/>
       <c r="G29" s="29"/>
       <c r="H29" s="27"/>
@@ -6322,7 +6361,7 @@
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="108"/>
+      <c r="W29" s="29"/>
       <c r="X29" s="27"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -6330,7 +6369,7 @@
       <c r="B30" s="27"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="111"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="27"/>
       <c r="G30" s="29"/>
       <c r="H30" s="27"/>
@@ -6348,7 +6387,7 @@
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-      <c r="W30" s="108"/>
+      <c r="W30" s="29"/>
       <c r="X30" s="27"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -6356,7 +6395,7 @@
       <c r="B31" s="27"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="111"/>
+      <c r="E31" s="97"/>
       <c r="F31" s="27"/>
       <c r="G31" s="29"/>
       <c r="H31" s="27"/>
@@ -6376,7 +6415,7 @@
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="108"/>
+      <c r="W31" s="29"/>
       <c r="X31" s="27"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -6389,7 +6428,7 @@
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
-      <c r="E32" s="112" t="str">
+      <c r="E32" s="98" t="str">
         <f>IF(AND(ABS(D32-D34)&lt;1,D32&gt;D34),"*","")</f>
         <v/>
       </c>
@@ -6410,7 +6449,7 @@
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
-      <c r="W32" s="108"/>
+      <c r="W32" s="29"/>
       <c r="X32" s="27"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -6418,7 +6457,7 @@
       <c r="B33" s="27"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="111"/>
+      <c r="E33" s="97"/>
       <c r="F33" s="34"/>
       <c r="G33" s="29"/>
       <c r="H33" s="27"/>
@@ -6439,7 +6478,7 @@
       </c>
       <c r="U33" s="33"/>
       <c r="V33" s="33"/>
-      <c r="W33" s="108" t="str">
+      <c r="W33" s="29" t="str">
         <f>IF(AND(ABS(V33-V35)&lt;1,V33&gt;V35),"*","")</f>
         <v/>
       </c>
@@ -6458,7 +6497,7 @@
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="113" t="str">
+      <c r="E34" s="99" t="str">
         <f>IF(AND(ABS(D32-D34)&lt;1,D34&gt;D32),"*","")</f>
         <v/>
       </c>
@@ -6479,7 +6518,7 @@
       <c r="T34" s="27"/>
       <c r="U34" s="29"/>
       <c r="V34" s="29"/>
-      <c r="W34" s="108"/>
+      <c r="W34" s="29"/>
       <c r="X34" s="27"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -6487,7 +6526,7 @@
       <c r="B35" s="27"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="111"/>
+      <c r="E35" s="97"/>
       <c r="F35" s="34"/>
       <c r="G35" s="31">
         <v>3</v>
@@ -6516,7 +6555,7 @@
       </c>
       <c r="U35" s="33"/>
       <c r="V35" s="33"/>
-      <c r="W35" s="109" t="str">
+      <c r="W35" s="95" t="str">
         <f>IF(AND(ABS(V33-V35)&lt;1,V35&gt;V33),"*","")</f>
         <v/>
       </c>
@@ -6530,7 +6569,7 @@
       <c r="B36" s="27"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="111"/>
+      <c r="E36" s="97"/>
       <c r="F36" s="27"/>
       <c r="G36" s="29"/>
       <c r="H36" s="27"/>
@@ -6548,7 +6587,7 @@
       <c r="T36" s="27"/>
       <c r="U36" s="27"/>
       <c r="V36" s="27"/>
-      <c r="W36" s="108"/>
+      <c r="W36" s="29"/>
       <c r="X36" s="27"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -6556,7 +6595,7 @@
       <c r="B37" s="27"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="111"/>
+      <c r="E37" s="97"/>
       <c r="F37" s="34"/>
       <c r="G37" s="31">
         <v>6</v>
@@ -6567,7 +6606,7 @@
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
-      <c r="K37" s="107" t="str">
+      <c r="K37" s="94" t="str">
         <f>IF(AND(ABS(J35-J37)&lt;1,J37&gt;J35),"*","")</f>
         <v/>
       </c>
@@ -6595,7 +6634,7 @@
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
-      <c r="E38" s="112" t="str">
+      <c r="E38" s="98" t="str">
         <f>IF(AND(ABS(D38-D40)&lt;1,D38&gt;D40),"*","")</f>
         <v/>
       </c>
@@ -6624,7 +6663,7 @@
       <c r="B39" s="27"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="111"/>
+      <c r="E39" s="97"/>
       <c r="F39" s="34"/>
       <c r="G39" s="29"/>
       <c r="H39" s="27"/>
@@ -6655,7 +6694,7 @@
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
-      <c r="E40" s="113" t="str">
+      <c r="E40" s="99" t="str">
         <f>IF(AND(ABS(D38-D40)&lt;1,D40&gt;D38),"*","")</f>
         <v/>
       </c>
@@ -6684,7 +6723,7 @@
       <c r="B41" s="27"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="111"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="27"/>
       <c r="G41" s="29"/>
       <c r="H41" s="27"/>
@@ -6718,7 +6757,7 @@
       <c r="B42" s="27"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="E42" s="111"/>
+      <c r="E42" s="97"/>
       <c r="F42" s="27"/>
       <c r="G42" s="29"/>
       <c r="H42" s="27"/>
@@ -6744,7 +6783,7 @@
       <c r="B43" s="27"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="E43" s="111"/>
+      <c r="E43" s="97"/>
       <c r="F43" s="27"/>
       <c r="G43" s="29"/>
       <c r="H43" s="27"/>
@@ -6761,7 +6800,7 @@
       </c>
       <c r="O43" s="33"/>
       <c r="P43" s="33"/>
-      <c r="Q43" s="107" t="str">
+      <c r="Q43" s="94" t="str">
         <f>IF(AND(ABS(P41-P43)&lt;1,P43&gt;P41),"*","")</f>
         <v/>
       </c>
@@ -6783,7 +6822,7 @@
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="112" t="str">
+      <c r="E44" s="98" t="str">
         <f>IF(AND(ABS(D44-D46)&lt;1,D44&gt;D46),"*","")</f>
         <v/>
       </c>
@@ -6812,7 +6851,7 @@
       <c r="B45" s="27"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="111"/>
+      <c r="E45" s="97"/>
       <c r="F45" s="34"/>
       <c r="G45" s="29"/>
       <c r="H45" s="27"/>
@@ -6843,7 +6882,7 @@
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
-      <c r="E46" s="113" t="str">
+      <c r="E46" s="99" t="str">
         <f>IF(AND(ABS(D44-D46)&lt;1,D46&gt;D44),"*","")</f>
         <v/>
       </c>
@@ -6872,7 +6911,7 @@
       <c r="B47" s="27"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
-      <c r="E47" s="111"/>
+      <c r="E47" s="97"/>
       <c r="F47" s="34"/>
       <c r="G47" s="31">
         <v>7</v>
@@ -6906,7 +6945,7 @@
       <c r="B48" s="27"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="111"/>
+      <c r="E48" s="97"/>
       <c r="F48" s="27"/>
       <c r="G48" s="29"/>
       <c r="H48" s="27"/>
@@ -6932,7 +6971,7 @@
       <c r="B49" s="27"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="E49" s="111"/>
+      <c r="E49" s="97"/>
       <c r="F49" s="34"/>
       <c r="G49" s="31">
         <v>2</v>
@@ -6943,7 +6982,7 @@
       </c>
       <c r="I49" s="33"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="107" t="str">
+      <c r="K49" s="94" t="str">
         <f>IF(AND(ABS(J47-J49)&lt;1,J49&gt;J47),"*","")</f>
         <v/>
       </c>
@@ -6971,7 +7010,7 @@
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="112" t="str">
+      <c r="E50" s="98" t="str">
         <f>IF(AND(ABS(D50-D52)&lt;1,D50&gt;D52),"*","")</f>
         <v/>
       </c>
@@ -7000,7 +7039,7 @@
       <c r="B51" s="27"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="111"/>
+      <c r="E51" s="97"/>
       <c r="F51" s="34"/>
       <c r="G51" s="29"/>
       <c r="H51" s="27"/>
@@ -7031,7 +7070,7 @@
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
-      <c r="E52" s="113" t="str">
+      <c r="E52" s="99" t="str">
         <f>IF(AND(ABS(D50-D52)&lt;1,D52&gt;D50),"*","")</f>
         <v/>
       </c>
@@ -7060,7 +7099,7 @@
       <c r="B53" s="27"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="111"/>
+      <c r="E53" s="97"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -7086,7 +7125,7 @@
       <c r="B54" s="27"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="111"/>
+      <c r="E54" s="97"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>

--- a/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23BB500-8078-425F-BF78-3D60D0216BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5738E8-0B4F-46F2-B0C3-275940030903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="945" windowWidth="22440" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22440" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="3" r:id="rId1"/>
@@ -1037,47 +1037,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{175D33A7-1F9B-4AB2-8F78-FE93C7A8B6CF}"/>
     <cellStyle name="Standaard_Vers" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1435,7 +1395,7 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1743,9 +1703,9 @@
   <sheetPr codeName="Blad1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2011,10 +1971,6 @@
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="12"/>
       <c r="J10" s="8"/>
@@ -2039,10 +1995,6 @@
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
       <c r="H11" s="8"/>
       <c r="I11" s="12"/>
       <c r="J11" s="8"/>
@@ -2068,7 +2020,6 @@
       <c r="B12" s="11"/>
       <c r="C12" s="20"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="8"/>
@@ -2096,7 +2047,6 @@
       <c r="B13" s="11"/>
       <c r="C13" s="20"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="8"/>
@@ -2124,7 +2074,6 @@
       <c r="B14" s="11"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="8"/>
@@ -2152,7 +2101,6 @@
       <c r="B15" s="11"/>
       <c r="C15" s="20"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="8"/>
@@ -2180,7 +2128,6 @@
       <c r="B16" s="11"/>
       <c r="C16" s="20"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="8"/>
@@ -2208,7 +2155,6 @@
       <c r="B17" s="11"/>
       <c r="C17" s="20"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="8"/>
@@ -2236,7 +2182,6 @@
       <c r="B18" s="11"/>
       <c r="C18" s="20"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8"/>
@@ -2264,7 +2209,6 @@
       <c r="B19" s="11"/>
       <c r="C19" s="20"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8"/>
@@ -2292,7 +2236,6 @@
       <c r="B20" s="11"/>
       <c r="C20" s="20"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="8"/>
@@ -2320,7 +2263,6 @@
       <c r="B21" s="11"/>
       <c r="C21" s="20"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="8"/>
@@ -2809,6 +2751,48 @@
         <v>24</v>
       </c>
     </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D39" s="10"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D40" s="10"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="A8:P33" xr:uid="{00000000-0001-0000-0300-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P33">
@@ -2830,10 +2814,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="N9:N33">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.35433070866141736" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3731,7 +3715,7 @@
     </row>
     <row r="64" spans="1:12" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="47" t="str">
-        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E9,"BYE")</f>
+        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E38,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H64" s="48" t="str">
@@ -3741,7 +3725,7 @@
     </row>
     <row r="65" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="47" t="str">
-        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E10,"BYE")</f>
+        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E39,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H65" s="48" t="str">
@@ -3751,7 +3735,7 @@
     </row>
     <row r="66" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="47" t="str">
-        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E11,"BYE")</f>
+        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E40,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H66" s="48" t="str">
@@ -3761,7 +3745,7 @@
     </row>
     <row r="67" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="47" t="str">
-        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E12,"BYE")</f>
+        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E41,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H67" s="27" t="str">
@@ -5176,7 +5160,7 @@
     </row>
     <row r="64" spans="1:18" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="47" t="str">
-        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E9,"BYE")</f>
+        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E38,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H64" s="48" t="str">
@@ -5190,7 +5174,7 @@
     </row>
     <row r="65" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="47" t="str">
-        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E10,"BYE")</f>
+        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E39,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H65" s="48" t="str">
@@ -5204,7 +5188,7 @@
     </row>
     <row r="66" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="47" t="str">
-        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E11,"BYE")</f>
+        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E40,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H66" s="48" t="str">
@@ -5218,7 +5202,7 @@
     </row>
     <row r="67" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="47" t="str">
-        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E12,"BYE")</f>
+        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E41,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H67" s="48" t="str">
@@ -5232,25 +5216,25 @@
     </row>
     <row r="68" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="47" t="str">
-        <f>IF(Voorronde!N13&gt;0,"["&amp;Voorronde!D13&amp;"] "&amp;Voorronde!E13,"BYE")</f>
+        <f>IF(Voorronde!N13&gt;0,"["&amp;Voorronde!D13&amp;"] "&amp;Voorronde!E42,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
     <row r="69" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="47" t="str">
-        <f>IF(Voorronde!N14&gt;0,"["&amp;Voorronde!D14&amp;"] "&amp;Voorronde!E14,"BYE")</f>
+        <f>IF(Voorronde!N14&gt;0,"["&amp;Voorronde!D14&amp;"] "&amp;Voorronde!E43,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
     <row r="70" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="47" t="str">
-        <f>IF(Voorronde!N15&gt;0,"["&amp;Voorronde!D15&amp;"] "&amp;Voorronde!E15,"BYE")</f>
+        <f>IF(Voorronde!N15&gt;0,"["&amp;Voorronde!D15&amp;"] "&amp;Voorronde!E44,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
     <row r="71" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="47" t="str">
-        <f>IF(Voorronde!N16&gt;0,"["&amp;Voorronde!D16&amp;"] "&amp;Voorronde!E16,"BYE")</f>
+        <f>IF(Voorronde!N16&gt;0,"["&amp;Voorronde!D16&amp;"] "&amp;Voorronde!E45,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
@@ -7197,7 +7181,7 @@
     <row r="64" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
       <c r="B64" s="47" t="str">
-        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E9,"BYE")</f>
+        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E38,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C64" s="29"/>
@@ -7219,7 +7203,7 @@
     <row r="65" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="47" t="str">
-        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E10,"BYE")</f>
+        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E39,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C65" s="29"/>
@@ -7241,7 +7225,7 @@
     <row r="66" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="47" t="str">
-        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E11,"BYE")</f>
+        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E40,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C66" s="29"/>
@@ -7263,7 +7247,7 @@
     <row r="67" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="47" t="str">
-        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E12,"BYE")</f>
+        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E41,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C67" s="29"/>
@@ -7285,7 +7269,7 @@
     <row r="68" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
       <c r="B68" s="47" t="str">
-        <f>IF(Voorronde!N13&gt;0,"["&amp;Voorronde!D13&amp;"] "&amp;Voorronde!E13,"BYE")</f>
+        <f>IF(Voorronde!N13&gt;0,"["&amp;Voorronde!D13&amp;"] "&amp;Voorronde!E42,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C68" s="29"/>
@@ -7299,7 +7283,7 @@
     <row r="69" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="47" t="str">
-        <f>IF(Voorronde!N14&gt;0,"["&amp;Voorronde!D14&amp;"] "&amp;Voorronde!E14,"BYE")</f>
+        <f>IF(Voorronde!N14&gt;0,"["&amp;Voorronde!D14&amp;"] "&amp;Voorronde!E43,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C69" s="29"/>
@@ -7313,7 +7297,7 @@
     <row r="70" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
       <c r="B70" s="47" t="str">
-        <f>IF(Voorronde!N15&gt;0,"["&amp;Voorronde!D15&amp;"] "&amp;Voorronde!E15,"BYE")</f>
+        <f>IF(Voorronde!N15&gt;0,"["&amp;Voorronde!D15&amp;"] "&amp;Voorronde!E44,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C70" s="29"/>
@@ -7327,7 +7311,7 @@
     <row r="71" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="30"/>
       <c r="B71" s="47" t="str">
-        <f>IF(Voorronde!N16&gt;0,"["&amp;Voorronde!D16&amp;"] "&amp;Voorronde!E16,"BYE")</f>
+        <f>IF(Voorronde!N16&gt;0,"["&amp;Voorronde!D16&amp;"] "&amp;Voorronde!E45,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C71" s="29"/>
@@ -7341,7 +7325,7 @@
     <row r="72" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="30"/>
       <c r="B72" s="47" t="str">
-        <f>IF(Voorronde!N17&gt;0,"["&amp;Voorronde!D17&amp;"] "&amp;Voorronde!E17,"BYE")</f>
+        <f>IF(Voorronde!N17&gt;0,"["&amp;Voorronde!D17&amp;"] "&amp;Voorronde!E46,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C72" s="29"/>
@@ -7351,7 +7335,7 @@
     <row r="73" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="30"/>
       <c r="B73" s="47" t="str">
-        <f>IF(Voorronde!N18&gt;0,"["&amp;Voorronde!D18&amp;"] "&amp;Voorronde!E18,"BYE")</f>
+        <f>IF(Voorronde!N18&gt;0,"["&amp;Voorronde!D18&amp;"] "&amp;Voorronde!E47,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C73" s="29"/>
@@ -7361,7 +7345,7 @@
     <row r="74" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="30"/>
       <c r="B74" s="47" t="str">
-        <f>IF(Voorronde!N19&gt;0,"["&amp;Voorronde!D19&amp;"] "&amp;Voorronde!E19,"BYE")</f>
+        <f>IF(Voorronde!N19&gt;0,"["&amp;Voorronde!D19&amp;"] "&amp;Voorronde!E48,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C74" s="29"/>
@@ -7371,7 +7355,7 @@
     <row r="75" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="30"/>
       <c r="B75" s="47" t="str">
-        <f>IF(Voorronde!N20&gt;0,"["&amp;Voorronde!D20&amp;"] "&amp;Voorronde!E20,"BYE")</f>
+        <f>IF(Voorronde!N20&gt;0,"["&amp;Voorronde!D20&amp;"] "&amp;Voorronde!E49,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C75" s="29"/>
@@ -7381,7 +7365,7 @@
     <row r="76" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="30"/>
       <c r="B76" s="47" t="str">
-        <f>IF(Voorronde!N21&gt;0,"["&amp;Voorronde!D21&amp;"] "&amp;Voorronde!E21,"BYE")</f>
+        <f>IF(Voorronde!N21&gt;0,"["&amp;Voorronde!D21&amp;"] "&amp;Voorronde!E50,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C76" s="29"/>

--- a/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5738E8-0B4F-46F2-B0C3-275940030903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D37EFA-C680-4199-AACE-B6A7EBF14042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22440" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="1410" windowWidth="18195" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="3" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t>Finales</t>
   </si>
   <si>
-    <t>E-mail voor het insturen van de uitslagen: nhb-apps-support@handboogsport.nl</t>
-  </si>
-  <si>
     <t>Contactgegevens</t>
   </si>
   <si>
@@ -503,6 +500,28 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E-mail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>insturen ingevuld bestand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: mh-support@handboogsport.nl</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -512,7 +531,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -574,6 +593,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1072,9 +1097,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1112,9 +1137,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1147,26 +1172,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1199,26 +1207,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1410,7 +1401,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="84"/>
     </row>
@@ -1427,13 +1418,13 @@
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1442,14 +1433,14 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="85"/>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1458,38 +1449,38 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="85"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="84"/>
       <c r="B12" s="85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="84"/>
       <c r="B13" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="84"/>
       <c r="B14" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="84"/>
       <c r="B15" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="84"/>
       <c r="B16" s="85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1522,7 @@
     <row r="24" spans="1:2" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A24" s="84"/>
       <c r="B24" s="85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +1538,7 @@
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="84"/>
       <c r="B27" s="85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1562,20 +1553,20 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="84"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="84"/>
       <c r="B31" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="84"/>
       <c r="B32" s="85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1584,38 +1575,38 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="84"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="84"/>
       <c r="B35" s="85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="84"/>
       <c r="B36" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="84"/>
       <c r="B37" s="85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="84"/>
       <c r="B38" s="85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="84"/>
       <c r="B39" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1631,37 +1622,37 @@
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="84"/>
       <c r="B42" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="84"/>
       <c r="B43" s="85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="84"/>
       <c r="B44" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="84"/>
       <c r="B45" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="84"/>
       <c r="B46" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A47" s="84"/>
       <c r="B47" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,14 +1661,14 @@
     </row>
     <row r="49" spans="1:2" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="86"/>
     </row>
     <row r="50" spans="1:2" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="86"/>
-      <c r="B50" s="85" t="s">
-        <v>64</v>
+      <c r="B50" s="91" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1823,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="104"/>
       <c r="I5" s="83"/>
@@ -1897,7 +1888,7 @@
         <v>25</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>24</v>
@@ -1917,7 +1908,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N8" s="21" t="s">
         <v>26</v>

--- a/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D37EFA-C680-4199-AACE-B6A7EBF14042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B78C9B9-07A2-4079-8031-D181D3DA6EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1410" windowWidth="18195" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10605" yWindow="645" windowWidth="18195" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="3" r:id="rId1"/>
@@ -2824,8 +2824,8 @@
   </sheetPr>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="64" spans="1:12" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="47" t="str">
-        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E38,"BYE")</f>
+        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E9,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H64" s="48" t="str">
@@ -3716,7 +3716,7 @@
     </row>
     <row r="65" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="47" t="str">
-        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E39,"BYE")</f>
+        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E10,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H65" s="48" t="str">
@@ -3726,7 +3726,7 @@
     </row>
     <row r="66" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="47" t="str">
-        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E40,"BYE")</f>
+        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E11,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H66" s="48" t="str">
@@ -3736,7 +3736,7 @@
     </row>
     <row r="67" spans="2:8" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="47" t="str">
-        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E41,"BYE")</f>
+        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E12,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H67" s="27" t="str">
@@ -3865,8 +3865,8 @@
   </sheetPr>
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -5051,7 +5051,7 @@
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
     </row>
-    <row r="52" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="29"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="64" spans="1:18" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="47" t="str">
-        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E38,"BYE")</f>
+        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E9,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H64" s="48" t="str">
@@ -5165,7 +5165,7 @@
     </row>
     <row r="65" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="47" t="str">
-        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E39,"BYE")</f>
+        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E10,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H65" s="48" t="str">
@@ -5179,7 +5179,7 @@
     </row>
     <row r="66" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="47" t="str">
-        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E40,"BYE")</f>
+        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E11,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H66" s="48" t="str">
@@ -5193,7 +5193,7 @@
     </row>
     <row r="67" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="47" t="str">
-        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E41,"BYE")</f>
+        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E12,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="H67" s="48" t="str">
@@ -5207,25 +5207,25 @@
     </row>
     <row r="68" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="47" t="str">
-        <f>IF(Voorronde!N13&gt;0,"["&amp;Voorronde!D13&amp;"] "&amp;Voorronde!E42,"BYE")</f>
+        <f>IF(Voorronde!N13&gt;0,"["&amp;Voorronde!D13&amp;"] "&amp;Voorronde!E13,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
     <row r="69" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="47" t="str">
-        <f>IF(Voorronde!N14&gt;0,"["&amp;Voorronde!D14&amp;"] "&amp;Voorronde!E43,"BYE")</f>
+        <f>IF(Voorronde!N14&gt;0,"["&amp;Voorronde!D14&amp;"] "&amp;Voorronde!E14,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
     <row r="70" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="47" t="str">
-        <f>IF(Voorronde!N15&gt;0,"["&amp;Voorronde!D15&amp;"] "&amp;Voorronde!E44,"BYE")</f>
+        <f>IF(Voorronde!N15&gt;0,"["&amp;Voorronde!D15&amp;"] "&amp;Voorronde!E15,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
     <row r="71" spans="2:14" s="27" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="47" t="str">
-        <f>IF(Voorronde!N16&gt;0,"["&amp;Voorronde!D16&amp;"] "&amp;Voorronde!E45,"BYE")</f>
+        <f>IF(Voorronde!N16&gt;0,"["&amp;Voorronde!D16&amp;"] "&amp;Voorronde!E16,"BYE")</f>
         <v>BYE</v>
       </c>
     </row>
@@ -7172,7 +7172,7 @@
     <row r="64" spans="1:24" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
       <c r="B64" s="47" t="str">
-        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E38,"BYE")</f>
+        <f>IF(Voorronde!N9&gt;0,"["&amp;Voorronde!D9&amp;"] "&amp;Voorronde!E9,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C64" s="29"/>
@@ -7194,7 +7194,7 @@
     <row r="65" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="47" t="str">
-        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E39,"BYE")</f>
+        <f>IF(Voorronde!N10&gt;0,"["&amp;Voorronde!D10&amp;"] "&amp;Voorronde!E10,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C65" s="29"/>
@@ -7216,7 +7216,7 @@
     <row r="66" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="47" t="str">
-        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E40,"BYE")</f>
+        <f>IF(Voorronde!N11&gt;0,"["&amp;Voorronde!D11&amp;"] "&amp;Voorronde!E11,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C66" s="29"/>
@@ -7238,7 +7238,7 @@
     <row r="67" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="47" t="str">
-        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E41,"BYE")</f>
+        <f>IF(Voorronde!N12&gt;0,"["&amp;Voorronde!D12&amp;"] "&amp;Voorronde!E12,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C67" s="29"/>
@@ -7260,7 +7260,7 @@
     <row r="68" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
       <c r="B68" s="47" t="str">
-        <f>IF(Voorronde!N13&gt;0,"["&amp;Voorronde!D13&amp;"] "&amp;Voorronde!E42,"BYE")</f>
+        <f>IF(Voorronde!N13&gt;0,"["&amp;Voorronde!D13&amp;"] "&amp;Voorronde!E13,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C68" s="29"/>
@@ -7274,7 +7274,7 @@
     <row r="69" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="47" t="str">
-        <f>IF(Voorronde!N14&gt;0,"["&amp;Voorronde!D14&amp;"] "&amp;Voorronde!E43,"BYE")</f>
+        <f>IF(Voorronde!N14&gt;0,"["&amp;Voorronde!D14&amp;"] "&amp;Voorronde!E14,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C69" s="29"/>
@@ -7288,7 +7288,7 @@
     <row r="70" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
       <c r="B70" s="47" t="str">
-        <f>IF(Voorronde!N15&gt;0,"["&amp;Voorronde!D15&amp;"] "&amp;Voorronde!E44,"BYE")</f>
+        <f>IF(Voorronde!N15&gt;0,"["&amp;Voorronde!D15&amp;"] "&amp;Voorronde!E15,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C70" s="29"/>
@@ -7302,7 +7302,7 @@
     <row r="71" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="30"/>
       <c r="B71" s="47" t="str">
-        <f>IF(Voorronde!N16&gt;0,"["&amp;Voorronde!D16&amp;"] "&amp;Voorronde!E45,"BYE")</f>
+        <f>IF(Voorronde!N16&gt;0,"["&amp;Voorronde!D16&amp;"] "&amp;Voorronde!E16,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C71" s="29"/>
@@ -7316,7 +7316,7 @@
     <row r="72" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="30"/>
       <c r="B72" s="47" t="str">
-        <f>IF(Voorronde!N17&gt;0,"["&amp;Voorronde!D17&amp;"] "&amp;Voorronde!E46,"BYE")</f>
+        <f>IF(Voorronde!N17&gt;0,"["&amp;Voorronde!D17&amp;"] "&amp;Voorronde!E17,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C72" s="29"/>
@@ -7326,7 +7326,7 @@
     <row r="73" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="30"/>
       <c r="B73" s="47" t="str">
-        <f>IF(Voorronde!N18&gt;0,"["&amp;Voorronde!D18&amp;"] "&amp;Voorronde!E47,"BYE")</f>
+        <f>IF(Voorronde!N18&gt;0,"["&amp;Voorronde!D18&amp;"] "&amp;Voorronde!E18,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C73" s="29"/>
@@ -7336,7 +7336,7 @@
     <row r="74" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="30"/>
       <c r="B74" s="47" t="str">
-        <f>IF(Voorronde!N19&gt;0,"["&amp;Voorronde!D19&amp;"] "&amp;Voorronde!E48,"BYE")</f>
+        <f>IF(Voorronde!N19&gt;0,"["&amp;Voorronde!D19&amp;"] "&amp;Voorronde!E19,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C74" s="29"/>
@@ -7346,7 +7346,7 @@
     <row r="75" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="30"/>
       <c r="B75" s="47" t="str">
-        <f>IF(Voorronde!N20&gt;0,"["&amp;Voorronde!D20&amp;"] "&amp;Voorronde!E49,"BYE")</f>
+        <f>IF(Voorronde!N20&gt;0,"["&amp;Voorronde!D20&amp;"] "&amp;Voorronde!E20,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C75" s="29"/>
@@ -7356,7 +7356,7 @@
     <row r="76" spans="1:20" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="30"/>
       <c r="B76" s="47" t="str">
-        <f>IF(Voorronde!N21&gt;0,"["&amp;Voorronde!D21&amp;"] "&amp;Voorronde!E50,"BYE")</f>
+        <f>IF(Voorronde!N21&gt;0,"["&amp;Voorronde!D21&amp;"] "&amp;Voorronde!E21,"BYE")</f>
         <v>BYE</v>
       </c>
       <c r="C76" s="29"/>

--- a/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-indiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B78C9B9-07A2-4079-8031-D181D3DA6EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F20315-D918-4B4A-80B3-B4374651A4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10605" yWindow="645" windowWidth="18195" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2824,8 +2824,8 @@
   </sheetPr>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3865,8 +3865,8 @@
   </sheetPr>
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
